--- a/Tech_result.xlsx
+++ b/Tech_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.005570958356326372</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C2">
-        <v>0.5888888888888889</v>
+        <v>-0.005477334163766834</v>
       </c>
       <c r="D2">
-        <v>-0.002451465576256531</v>
+        <v>-0.00371800976454258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.005477334163766834</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C3">
-        <v>1.177777777777778</v>
+        <v>0.003745570633054918</v>
       </c>
       <c r="D3">
-        <v>-0.002491725776213594</v>
+        <v>0.002542490155083943</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003745570633054918</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C4">
-        <v>1.766666666666667</v>
+        <v>0.009722594232854931</v>
       </c>
       <c r="D4">
-        <v>-0.001013695716957855</v>
+        <v>0.006599688683149483</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.009722594232854931</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C5">
-        <v>2.355555555555556</v>
+        <v>0.01394219545048436</v>
       </c>
       <c r="D5">
-        <v>-0.002899491910912755</v>
+        <v>0.009463950395243526</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01394219545048436</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C6">
-        <v>2.944444444444445</v>
+        <v>0.003024115629363777</v>
       </c>
       <c r="D6">
-        <v>-0.006651087518572603</v>
+        <v>0.002052767113143946</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.003024115629363777</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C7">
-        <v>3.758614014711576</v>
+        <v>0.008290109201726459</v>
       </c>
       <c r="D7">
-        <v>-0.0001153461212417689</v>
+        <v>0.00599953189944453</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.008290109201726459</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C8">
-        <v>4.347502903600464</v>
+        <v>-0.004385196669773883</v>
       </c>
       <c r="D8">
-        <v>-0.005806093289230031</v>
+        <v>-0.002976667763948565</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.004385196669773883</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C9">
-        <v>5.161672473867595</v>
+        <v>0.004257598259326478</v>
       </c>
       <c r="D9">
-        <v>-0.02064855266019028</v>
+        <v>0.003081213522076298</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.004257598259326478</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C10">
-        <v>5.750561362756484</v>
+        <v>0.004052667681357924</v>
       </c>
       <c r="D10">
-        <v>-0.02181189815129787</v>
+        <v>0.002750947369873913</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.004052667681357924</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C11">
-        <v>6.339450251645372</v>
+        <v>-0.005239361826313349</v>
       </c>
       <c r="D11">
-        <v>-0.02654219156702834</v>
+        <v>-0.003556474344593945</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.005239361826313349</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C12">
-        <v>7.153619821912503</v>
+        <v>0.00700958446267741</v>
       </c>
       <c r="D12">
-        <v>-0.02530328086457097</v>
+        <v>0.005072819255134281</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.00700958446267741</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C13">
-        <v>7.967789392179634</v>
+        <v>-0.001239573924562087</v>
       </c>
       <c r="D13">
-        <v>-0.05154266108114162</v>
+        <v>-0.0008970766393018231</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.001239573924562087</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C14">
-        <v>8.781958962446765</v>
+        <v>0.006910033601042365</v>
       </c>
       <c r="D14">
-        <v>-0.04053616095009871</v>
+        <v>0.005000774538296021</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.006910033601042365</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C15">
-        <v>9.596128532713896</v>
+        <v>-0.0003710933193836752</v>
       </c>
       <c r="D15">
-        <v>-0.03374339409651035</v>
+        <v>-0.0002685593341580422</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.0003710933193836752</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C16">
-        <v>10.41029810298103</v>
+        <v>0.004850442160775792</v>
       </c>
       <c r="D16">
-        <v>-0.02692263729024582</v>
+        <v>0.003510253214025783</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.004850442160775792</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C17">
-        <v>11.22446767324816</v>
+        <v>0.005789644928977822</v>
       </c>
       <c r="D17">
-        <v>-0.03264398340813099</v>
+        <v>0.004189951976823891</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.005789644928977822</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C18">
-        <v>12.03863724351529</v>
+        <v>0.002823710762815068</v>
       </c>
       <c r="D18">
-        <v>-0.0448611264775874</v>
+        <v>0.002043512622582319</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.002823710762815068</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C19">
-        <v>12.85280681378242</v>
+        <v>0.002267856677849345</v>
       </c>
       <c r="D19">
-        <v>-0.0365973535853482</v>
+        <v>0.001641242371004221</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.002267856677849345</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C20">
-        <v>13.66697638404955</v>
+        <v>0.01121219132893891</v>
       </c>
       <c r="D20">
-        <v>-0.04054147726561706</v>
+        <v>0.008114235639578244</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01121219132893891</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C21">
-        <v>14.48114595431668</v>
+        <v>-7.948809670033086e-05</v>
       </c>
       <c r="D21">
-        <v>-0.05263999046618348</v>
+        <v>-5.752534257093397e-05</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-7.948809670033086e-05</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C22">
-        <v>15.29531552458381</v>
+        <v>-1.44530600740822e-05</v>
       </c>
       <c r="D22">
-        <v>-0.05229925422918403</v>
+        <v>-1.045964448103846e-05</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.44530600740822e-05</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C23">
-        <v>16.10948509485095</v>
+        <v>-0.003532805156940988</v>
       </c>
       <c r="D23">
-        <v>-0.05459569599319197</v>
+        <v>-0.002556682513805197</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.003532805156940988</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C24">
-        <v>16.92365466511808</v>
+        <v>-5.801894320089929e-05</v>
       </c>
       <c r="D24">
-        <v>-0.05875290666356912</v>
+        <v>-4.198816831428044e-05</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-5.801894320089929e-05</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C25">
-        <v>17.73782423538521</v>
+        <v>0.002129987981893677</v>
       </c>
       <c r="D25">
-        <v>-0.05459027090618689</v>
+        <v>0.001541467130510575</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.002129987981893677</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C26">
-        <v>18.55199380565234</v>
+        <v>-0.002717619445065544</v>
       </c>
       <c r="D26">
-        <v>-0.06579622753758418</v>
+        <v>-0.001966734593535389</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.002717619445065544</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C27">
-        <v>19.36616337591948</v>
+        <v>-0.005406421545488982</v>
       </c>
       <c r="D27">
-        <v>-0.0780946668991799</v>
+        <v>-0.003912614144726872</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.005406421545488982</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C28">
-        <v>20.18033294618661</v>
+        <v>0.009418651902174169</v>
       </c>
       <c r="D28">
-        <v>-0.0558065509583637</v>
+        <v>0.006816255511458142</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.009418651902174169</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C29">
-        <v>20.99450251645374</v>
+        <v>-0.008200931368008924</v>
       </c>
       <c r="D29">
-        <v>-0.04631236655347114</v>
+        <v>-0.005934994117722633</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.008200931368008924</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C30">
-        <v>21.80867208672088</v>
+        <v>-0.02138945678669746</v>
       </c>
       <c r="D30">
-        <v>-0.03881581561378909</v>
+        <v>-0.0154794979391655</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.02138945678669746</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C31">
-        <v>22.62284165698801</v>
+        <v>-0.001676496292705387</v>
       </c>
       <c r="D31">
-        <v>-0.02558418431398086</v>
+        <v>-0.001213276296202684</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.001676496292705387</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C32">
-        <v>23.43701122725514</v>
+        <v>-0.006816822204150697</v>
       </c>
       <c r="D32">
-        <v>-0.01880670411757995</v>
+        <v>-0.004933317676699205</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.006816822204150697</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C33">
-        <v>24.25118079752227</v>
+        <v>0.001785393260677282</v>
       </c>
       <c r="D33">
-        <v>-0.0186779061059881</v>
+        <v>0.00129208476750293</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.001785393260677282</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C34">
-        <v>25.06535036778941</v>
+        <v>-0.03781355065388681</v>
       </c>
       <c r="D34">
-        <v>-0.02269216560566123</v>
+        <v>-0.02736557479025848</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.03781355065388681</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C35">
-        <v>25.87951993805654</v>
+        <v>0.01586145887563184</v>
       </c>
       <c r="D35">
-        <v>-0.02117569429278276</v>
+        <v>0.01147889927387964</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.01586145887563184</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C36">
-        <v>26.69368950832367</v>
+        <v>0.009789051089552636</v>
       </c>
       <c r="D36">
-        <v>-0.02694870285060455</v>
+        <v>0.007084312503969489</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.009789051089552636</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C37">
-        <v>27.5078590785908</v>
+        <v>0.009829387388831989</v>
       </c>
       <c r="D37">
-        <v>-0.02579753882951076</v>
+        <v>0.00711350378581432</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.009829387388831989</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C38">
-        <v>28.32202864885794</v>
+        <v>-0.008245027491176948</v>
       </c>
       <c r="D38">
-        <v>-0.01397515652744684</v>
+        <v>-0.005966906374986181</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.008245027491176948</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C39">
-        <v>29.13619821912507</v>
+        <v>-0.01760611548328139</v>
       </c>
       <c r="D39">
-        <v>-0.01096288155772622</v>
+        <v>-0.01274150302450217</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.01760611548328139</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C40">
-        <v>29.9503677893922</v>
+        <v>0.01190891676075356</v>
       </c>
       <c r="D40">
-        <v>-0.001099074337947563</v>
+        <v>0.008618454142810473</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01190891676075356</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C41">
-        <v>30.76453735965934</v>
+        <v>-0.00568387360288547</v>
       </c>
       <c r="D41">
-        <v>-0.004290719275779887</v>
+        <v>-0.00411340552496226</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.00568387360288547</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C42">
-        <v>31.57870692992647</v>
+        <v>-0.01743515807044194</v>
       </c>
       <c r="D42">
-        <v>-0.003241999212087282</v>
+        <v>-0.01261778155994496</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.01743515807044194</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C43">
-        <v>32.3928765001936</v>
+        <v>0.000491034729138029</v>
       </c>
       <c r="D43">
-        <v>-0.01611208590713922</v>
+        <v>0.0003553606411584053</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.000491034729138029</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C44">
-        <v>33.20704607046073</v>
+        <v>-0.003309400460311807</v>
       </c>
       <c r="D44">
-        <v>-0.008567518112074221</v>
+        <v>-0.0023950050773206</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.003309400460311807</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C45">
-        <v>34.02121564072787</v>
+        <v>-0.005990953100481811</v>
       </c>
       <c r="D45">
-        <v>-0.006640961737103011</v>
+        <v>-0.004335638211729639</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.005990953100481811</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C46">
-        <v>34.835385210995</v>
+        <v>0.005998771189193342</v>
       </c>
       <c r="D46">
-        <v>-0.005649351241006569</v>
+        <v>0.004341296143546478</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.005998771189193342</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C47">
-        <v>35.64955478126213</v>
+        <v>-0.01614889548492471</v>
       </c>
       <c r="D47">
-        <v>0.004314188514648183</v>
+        <v>-0.01168691645007819</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.01614889548492471</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C48">
-        <v>36.46372435152927</v>
+        <v>-0.0177232715073723</v>
       </c>
       <c r="D48">
-        <v>0.006304751453993048</v>
+        <v>-0.0128262885546613</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.0177232715073723</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C49">
-        <v>37.2778939217964</v>
+        <v>0.03211938674433767</v>
       </c>
       <c r="D49">
-        <v>0.01099477112717881</v>
+        <v>0.02324472219535041</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.03211938674433767</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C50">
-        <v>38.09206349206353</v>
+        <v>0.01368206184553955</v>
       </c>
       <c r="D50">
-        <v>0.009655877528193624</v>
+        <v>0.009901674935161602</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.01368206184553955</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C51">
-        <v>38.90623306233066</v>
+        <v>0.01080327379486246</v>
       </c>
       <c r="D51">
-        <v>0.004568303123672623</v>
+        <v>0.007818303013090888</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.01080327379486246</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C52">
-        <v>39.7204026325978</v>
+        <v>0.01906809369197227</v>
       </c>
       <c r="D52">
-        <v>0.006746876184604157</v>
+        <v>0.01379953310419123</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.01906809369197227</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C53">
-        <v>40.53457220286493</v>
+        <v>0.009767021499634154</v>
       </c>
       <c r="D53">
-        <v>0.0122916747550612</v>
+        <v>0.007068369743237208</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.009767021499634154</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C54">
-        <v>41.34874177313206</v>
+        <v>0.0001856107154685205</v>
       </c>
       <c r="D54">
-        <v>0.01463768666124741</v>
+        <v>0.0001343260240890678</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0001856107154685205</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C55">
-        <v>42.16291134339919</v>
+        <v>-0.005784946278299508</v>
       </c>
       <c r="D55">
-        <v>0.02013465084374286</v>
+        <v>-0.004186551574737146</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.005784946278299508</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C56">
-        <v>42.97708091366633</v>
+        <v>0.002185385642930804</v>
       </c>
       <c r="D56">
-        <v>0.02221154971343132</v>
+        <v>0.001581558283287867</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.002185385642930804</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C57">
-        <v>43.79125048393346</v>
+        <v>-0.008319478193644869</v>
       </c>
       <c r="D57">
-        <v>0.01587389462309757</v>
+        <v>-0.006020786167582799</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.008319478193644869</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C58">
-        <v>44.60542005420059</v>
+        <v>0.001658941585635176</v>
       </c>
       <c r="D58">
-        <v>0.01383690140022288</v>
+        <v>0.001200571997321892</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.001658941585635176</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C59">
-        <v>45.41958962446773</v>
+        <v>0.01703722604493496</v>
       </c>
       <c r="D59">
-        <v>0.01940358317965066</v>
+        <v>0.01232979911933459</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.01703722604493496</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C60">
-        <v>46.23375919473486</v>
+        <v>0.004340987142639641</v>
       </c>
       <c r="D60">
-        <v>0.01555033867524874</v>
+        <v>0.003141561854447142</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.004340987142639641</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C61">
-        <v>47.04792876500199</v>
+        <v>0.01421472499985832</v>
       </c>
       <c r="D61">
-        <v>0.02398197025240213</v>
+        <v>0.01028716196654216</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.01421472499985832</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C62">
-        <v>47.86209833526912</v>
+        <v>-0.004599477065762692</v>
       </c>
       <c r="D62">
-        <v>0.02782252905666431</v>
+        <v>-0.003328630384152244</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.004599477065762692</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C63">
-        <v>48.67626790553626</v>
+        <v>0.001511309677396433</v>
       </c>
       <c r="D63">
-        <v>0.03375161536546047</v>
+        <v>0.001093731143805782</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.001511309677396433</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C64">
-        <v>49.49043747580339</v>
+        <v>-0.01854707204006001</v>
       </c>
       <c r="D64">
-        <v>0.02824152917340525</v>
+        <v>-0.01342247099983465</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.01854707204006001</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C65">
-        <v>50.30460704607052</v>
+        <v>0.01087247084823328</v>
       </c>
       <c r="D65">
-        <v>0.0321065302687986</v>
+        <v>0.007868380752592725</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.01087247084823328</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C66">
-        <v>51.11877661633766</v>
+        <v>0.002776358910586474</v>
       </c>
       <c r="D66">
-        <v>0.03175692571389474</v>
+        <v>0.00200924420210312</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.002776358910586474</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C67">
-        <v>51.93294618660479</v>
+        <v>0.001429009123446789</v>
       </c>
       <c r="D67">
-        <v>0.02690176684774621</v>
+        <v>0.001034170432752662</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.001429009123446789</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C68">
-        <v>52.74711575687192</v>
+        <v>0.01435844948062215</v>
       </c>
       <c r="D68">
-        <v>0.01663316819223436</v>
+        <v>0.0103911750242826</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.01435844948062215</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C69">
-        <v>53.56128532713905</v>
+        <v>0.002868598721288862</v>
       </c>
       <c r="D69">
-        <v>0.01291706943126549</v>
+        <v>0.002075997929133936</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.002868598721288862</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C70">
-        <v>54.37545489740619</v>
+        <v>0.006758783744737151</v>
       </c>
       <c r="D70">
-        <v>0.001147401570085785</v>
+        <v>0.004891315384549222</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.006758783744737151</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C71">
-        <v>55.18962446767332</v>
+        <v>-0.001929478535983797</v>
       </c>
       <c r="D71">
-        <v>-0.02767371766074369</v>
+        <v>-0.001396358931377836</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.001929478535983797</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C72">
-        <v>56.00379403794045</v>
+        <v>-0.007331699562373117</v>
       </c>
       <c r="D72">
-        <v>-0.01659983809541245</v>
+        <v>-0.005305933170631883</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.007331699562373117</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C73">
-        <v>56.81796360820758</v>
+        <v>0.003139539962941029</v>
       </c>
       <c r="D73">
-        <v>-0.01218153300237762</v>
+        <v>0.002272077447824566</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.003139539962941029</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C74">
-        <v>57.63213317847472</v>
+        <v>0.007990604956330749</v>
       </c>
       <c r="D74">
-        <v>0.004194572961634665</v>
+        <v>0.005782781404300701</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.007990604956330749</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C75">
-        <v>58.44630274874185</v>
+        <v>0.003380835954089001</v>
       </c>
       <c r="D75">
-        <v>-0.004507719818424421</v>
+        <v>0.002446702770709198</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.003380835954089001</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C76">
-        <v>59.26047231900898</v>
+        <v>0.007921670856620544</v>
       </c>
       <c r="D76">
-        <v>-0.01327964101964911</v>
+        <v>0.005732893963724558</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.007921670856620544</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C77">
-        <v>60.07464188927612</v>
+        <v>0.002993017364120831</v>
       </c>
       <c r="D77">
-        <v>0.003656047665305409</v>
+        <v>0.002166039398841059</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.002993017364120831</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C78">
-        <v>60.88881145954325</v>
+        <v>-0.009133189877474912</v>
       </c>
       <c r="D78">
-        <v>-0.01825561635255932</v>
+        <v>-0.006609667337335351</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.009133189877474912</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C79">
-        <v>61.70298102981038</v>
+        <v>-0.002935509367182121</v>
       </c>
       <c r="D79">
-        <v>-0.01954904645198841</v>
+        <v>-0.002124421001096057</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.002935509367182121</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C80">
-        <v>62.51715060007751</v>
+        <v>0.008022140831951852</v>
       </c>
       <c r="D80">
-        <v>-0.006630836103389369</v>
+        <v>0.005805603840913034</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.008022140831951852</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C81">
-        <v>63.33132017034465</v>
+        <v>-0.005552907692423226</v>
       </c>
       <c r="D81">
-        <v>0.004084907255137934</v>
+        <v>-0.004018625813569026</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.005552907692423226</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C82">
-        <v>64.14548974061178</v>
+        <v>0.01215081778251204</v>
       </c>
       <c r="D82">
-        <v>0.0004211012863112166</v>
+        <v>0.008793517324878803</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.01215081778251204</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C83">
-        <v>64.95965931087891</v>
+        <v>0.00553462633970625</v>
       </c>
       <c r="D83">
-        <v>0.008557143488741238</v>
+        <v>0.004005395642998094</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.00553462633970625</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C84">
-        <v>65.77382888114603</v>
+        <v>0.008544401720561368</v>
       </c>
       <c r="D84">
-        <v>0.006741910055467477</v>
+        <v>0.00618356277785834</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.008544401720561368</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C85">
-        <v>66.58799845141316</v>
+        <v>-0.007940580974507228</v>
       </c>
       <c r="D85">
-        <v>-0.01657929424589</v>
+        <v>-0.005746579170122055</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.007940580974507228</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C86">
-        <v>67.40216802168028</v>
+        <v>0.005569850106661001</v>
       </c>
       <c r="D86">
-        <v>-0.006970125292046552</v>
+        <v>0.004030886997613738</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.005569850106661001</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C87">
-        <v>68.21633759194741</v>
+        <v>-0.0005038148552509725</v>
       </c>
       <c r="D87">
-        <v>-0.007808582281871147</v>
+        <v>-0.0003646095873939458</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.0005038148552509725</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C88">
-        <v>69.03050716221453</v>
+        <v>-0.006996765708735531</v>
       </c>
       <c r="D88">
-        <v>-0.007212841826063466</v>
+        <v>-0.005063542354032735</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.006996765708735531</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C89">
-        <v>69.84467673248166</v>
+        <v>-0.01479806962663766</v>
       </c>
       <c r="D89">
-        <v>0.003527428763974857</v>
+        <v>-0.0107093270564789</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.01479806962663766</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C90">
-        <v>70.65884630274878</v>
+        <v>-0.005355267067017166</v>
       </c>
       <c r="D90">
-        <v>0.00361708440553313</v>
+        <v>-0.003875593772868901</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.005355267067017166</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C91">
-        <v>71.47301587301591</v>
+        <v>-0.01696125930471037</v>
       </c>
       <c r="D91">
-        <v>-0.005204515455520823</v>
+        <v>-0.01227482217389468</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.01696125930471037</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C92">
-        <v>72.28718544328304</v>
+        <v>-0.04153409276216191</v>
       </c>
       <c r="D92">
-        <v>0.006554362415545426</v>
+        <v>-0.03005812207988581</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.04153409276216191</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C93">
-        <v>73.10135501355016</v>
+        <v>0.01595855932657475</v>
       </c>
       <c r="D93">
-        <v>0.02116394338011992</v>
+        <v>0.01154917063445004</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01595855932657475</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C94">
-        <v>73.91552458381729</v>
+        <v>0.006367216072210802</v>
       </c>
       <c r="D94">
-        <v>0.0201093504248102</v>
+        <v>0.00460793881073716</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.006367216072210802</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C95">
-        <v>74.72969415408441</v>
+        <v>0.02359959371267983</v>
       </c>
       <c r="D95">
-        <v>0.0150964001842471</v>
+        <v>0.01707896866589732</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.02359959371267983</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C96">
-        <v>75.54386372435154</v>
+        <v>-0.01254086743390026</v>
       </c>
       <c r="D96">
-        <v>0.01167840854675448</v>
+        <v>-0.009075795310479227</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.01254086743390026</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C97">
-        <v>76.35803329461866</v>
+        <v>-0.01264120889810272</v>
       </c>
       <c r="D97">
-        <v>0.01865361704387368</v>
+        <v>-0.009148412184475801</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.01264120889810272</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C98">
-        <v>77.17220286488579</v>
+        <v>0.02440600794155046</v>
       </c>
       <c r="D98">
-        <v>0.02210055456756899</v>
+        <v>0.01766256868521524</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.02440600794155046</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C99">
-        <v>77.98637243515292</v>
+        <v>-0.03157688216763699</v>
       </c>
       <c r="D99">
-        <v>0.01742921768615151</v>
+        <v>-0.02285211295048876</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.03157688216763699</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C100">
-        <v>78.80054200542004</v>
+        <v>-0.001863961121731705</v>
       </c>
       <c r="D100">
-        <v>0.0155420508172733</v>
+        <v>-0.001348944137771416</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.001863961121731705</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C101">
-        <v>79.61471157568717</v>
+        <v>0.01861642300018307</v>
       </c>
       <c r="D101">
-        <v>0.01795631570032474</v>
+        <v>0.01347266012127936</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.01861642300018307</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C102">
-        <v>80.42888114595429</v>
+        <v>0.01544244951433082</v>
       </c>
       <c r="D102">
-        <v>0.01836631372818066</v>
+        <v>0.01117566321653461</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.01544244951433082</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C103">
-        <v>81.24305071622142</v>
+        <v>-0.005279907964470532</v>
       </c>
       <c r="D103">
-        <v>0.0197002578706055</v>
+        <v>-0.003821056573341072</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.005279907964470532</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C104">
-        <v>82.05722028648854</v>
+        <v>0.01172484416188535</v>
       </c>
       <c r="D104">
-        <v>0.01189172655570383</v>
+        <v>0.00848524124997023</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.01172484416188535</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C105">
-        <v>82.87138985675567</v>
+        <v>-0.002615931504905689</v>
       </c>
       <c r="D105">
-        <v>0.01347913238066316</v>
+        <v>-0.001893143278157926</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.002615931504905689</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C106">
-        <v>83.6855594270228</v>
+        <v>-0.03360816958634238</v>
       </c>
       <c r="D106">
-        <v>0.006329352952523277</v>
+        <v>-0.02432215072308232</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.03360816958634238</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C107">
-        <v>84.49972899728992</v>
+        <v>0.01384776599061777</v>
       </c>
       <c r="D107">
-        <v>0.01487677525646799</v>
+        <v>0.01002159462259586</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.01384776599061777</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C108">
-        <v>85.08861788617881</v>
+        <v>-0.001336708172169132</v>
       </c>
       <c r="D108">
-        <v>0.01515106922141606</v>
+        <v>-0.000907356368604474</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.001336708172169132</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C109">
-        <v>85.6775067750677</v>
+        <v>0.0009497578831521025</v>
       </c>
       <c r="D109">
-        <v>0.006200386346685651</v>
+        <v>0.0006446948420401558</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0009497578831521025</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C110">
-        <v>86.26639566395659</v>
+        <v>0.01712265225675491</v>
       </c>
       <c r="D110">
-        <v>0.01337603672854288</v>
+        <v>0.01162284176609383</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.01712265225675491</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C111">
-        <v>87.08056523422371</v>
+        <v>0.0001292026761108289</v>
       </c>
       <c r="D111">
-        <v>0.007449361848055646</v>
+        <v>9.35036629745586e-05</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0001292026761108289</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C112">
-        <v>87.89473480449084</v>
+        <v>-0.01271280077658332</v>
       </c>
       <c r="D112">
-        <v>-0.006414590407105605</v>
+        <v>-0.009200223053094527</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.01271280077658332</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C113">
-        <v>88.70890437475796</v>
+        <v>0.01694570985825461</v>
       </c>
       <c r="D113">
-        <v>0.001296199210256434</v>
+        <v>0.01226356907725143</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.01694570985825461</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C114">
-        <v>89.52307394502509</v>
+        <v>0.02105385589432185</v>
       </c>
       <c r="D114">
-        <v>0.0119362726053273</v>
+        <v>0.01523662438825134</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.02105385589432185</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C115">
-        <v>90.33724351529222</v>
+        <v>-0.001519773096990029</v>
       </c>
       <c r="D115">
-        <v>0.008926719177695046</v>
+        <v>-0.001099856100014995</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.001519773096990029</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C116">
-        <v>91.15141308555934</v>
+        <v>-0.007224158737074049</v>
       </c>
       <c r="D116">
-        <v>-0.002567770171094696</v>
+        <v>-0.005228106136491007</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.007224158737074049</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C117">
-        <v>91.96558265582647</v>
+        <v>-0.004925665120598666</v>
       </c>
       <c r="D117">
-        <v>0.006471059377909989</v>
+        <v>-0.003564691887395004</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.004925665120598666</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C118">
-        <v>92.77975222609359</v>
+        <v>0.0100519676017603</v>
       </c>
       <c r="D118">
-        <v>0.01045775017939007</v>
+        <v>0.00727458454544659</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0100519676017603</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C119">
-        <v>93.59392179636072</v>
+        <v>0.004967379014948037</v>
       </c>
       <c r="D119">
-        <v>0.01974150131250242</v>
+        <v>0.003594880131446964</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.004967379014948037</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C120">
-        <v>94.40809136662784</v>
+        <v>-0.006731859987885613</v>
       </c>
       <c r="D120">
-        <v>0.01910608879805543</v>
+        <v>-0.004871830727091386</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.006731859987885613</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C121">
-        <v>95.22226093689497</v>
+        <v>-0.002719594723643581</v>
       </c>
       <c r="D121">
-        <v>0.02599542943982121</v>
+        <v>-0.00196816409784599</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.002719594723643581</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C122">
-        <v>96.03643050716209</v>
+        <v>0.003479195266567814</v>
       </c>
       <c r="D122">
-        <v>0.02154344438884509</v>
+        <v>0.002517885166316384</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.003479195266567814</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C123">
-        <v>96.62531939605098</v>
+        <v>0.000653638434719106</v>
       </c>
       <c r="D123">
-        <v>0.02007866578587276</v>
+        <v>0.00044368921269077</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.000653638434719106</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C124">
-        <v>97.21420828493987</v>
+        <v>0.002126637451933533</v>
       </c>
       <c r="D124">
-        <v>0.01433532890389194</v>
+        <v>0.001443559690813748</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.002126637451933533</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C125">
-        <v>98.028377855207</v>
+        <v>-0.01125286847370077</v>
       </c>
       <c r="D125">
-        <v>0.0209885427613043</v>
+        <v>-0.008143673590471129</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.01125286847370077</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C126">
-        <v>98.84254742547412</v>
+        <v>0.002287609313746941</v>
       </c>
       <c r="D126">
-        <v>0.01233084376931543</v>
+        <v>0.001655537305640433</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.002287609313746941</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C127">
-        <v>99.65671699574125</v>
+        <v>-0.0103035416362216</v>
       </c>
       <c r="D127">
-        <v>0.01309268317058493</v>
+        <v>-0.007456648063320179</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.0103035416362216</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C128">
-        <v>100.4708865660084</v>
+        <v>0.0123176837098562</v>
       </c>
       <c r="D128">
-        <v>0.02231599330091316</v>
+        <v>0.008914277791317919</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0123176837098562</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C129">
-        <v>101.2850561362755</v>
+        <v>0.0003952848219741512</v>
       </c>
       <c r="D129">
-        <v>0.02978273278352176</v>
+        <v>0.0002860666658415416</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0003952848219741512</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C130">
-        <v>102.0992257065426</v>
+        <v>-0.01289882220833682</v>
       </c>
       <c r="D130">
-        <v>0.03766410922781907</v>
+        <v>-0.009334846311561744</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.01289882220833682</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C131">
-        <v>102.9133952768098</v>
+        <v>0.01034082424773075</v>
       </c>
       <c r="D131">
-        <v>0.03187408702275886</v>
+        <v>0.007483629398740604</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.01034082424773075</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C132">
-        <v>103.7275648470769</v>
+        <v>-0.008540926613079591</v>
       </c>
       <c r="D132">
-        <v>0.03568167977340612</v>
+        <v>-0.006181047851011952</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.008540926613079591</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C133">
-        <v>104.541734417344</v>
+        <v>-0.01997933093452176</v>
       </c>
       <c r="D133">
-        <v>0.03492542817768292</v>
+        <v>-0.01445899328397982</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.01997933093452176</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C134">
-        <v>105.1306233062329</v>
+        <v>0.0122929090227526</v>
       </c>
       <c r="D134">
-        <v>0.04332602017701067</v>
+        <v>0.008344416173030368</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.0122929090227526</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C135">
-        <v>105.7195121951218</v>
+        <v>0.01696291310380271</v>
       </c>
       <c r="D135">
-        <v>0.04675055620445723</v>
+        <v>0.01151441096514237</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.01696291310380271</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C136">
-        <v>106.3084010840107</v>
+        <v>-0.004797973790089394</v>
       </c>
       <c r="D136">
-        <v>0.04574604175335471</v>
+        <v>-0.003256860521597916</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.004797973790089394</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C137">
-        <v>106.8972899728996</v>
+        <v>-0.01832506381830346</v>
       </c>
       <c r="D137">
-        <v>0.04564830302168846</v>
+        <v>-0.01243903770980852</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.01832506381830346</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C138">
-        <v>107.4861788617884</v>
+        <v>0.01441013369991229</v>
       </c>
       <c r="D138">
-        <v>0.05027344422082061</v>
+        <v>0.009781586480345827</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.01441013369991229</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C139">
-        <v>108.0750677506773</v>
+        <v>0.006355772852898234</v>
       </c>
       <c r="D139">
-        <v>0.05433035832938898</v>
+        <v>0.004314293198434156</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.006355772852898234</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C140">
-        <v>108.6639566395662</v>
+        <v>0.01480059938508216</v>
       </c>
       <c r="D140">
-        <v>0.05474853014009786</v>
+        <v>0.01004663425482413</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.01480059938508216</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C141">
-        <v>109.2528455284551</v>
+        <v>-0.001013004973501985</v>
       </c>
       <c r="D141">
-        <v>0.05674858987886649</v>
+        <v>-0.0006876269130931392</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.001013004973501985</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C142">
-        <v>109.841734417344</v>
+        <v>0.0109833158390531</v>
       </c>
       <c r="D142">
-        <v>0.05849164112521665</v>
+        <v>0.007455465435501401</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0109833158390531</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C143">
-        <v>110.4306233062329</v>
+        <v>-0.007097567164726648</v>
       </c>
       <c r="D143">
-        <v>0.05757719955434524</v>
+        <v>-0.004817822545411861</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.007097567164726648</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C144">
-        <v>111.0195121951218</v>
+        <v>-0.002335219996700388</v>
       </c>
       <c r="D144">
-        <v>0.06339076165179315</v>
+        <v>-0.001585145344522153</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.002335219996700388</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C145">
-        <v>111.6084010840107</v>
+        <v>-0.009156301919875709</v>
       </c>
       <c r="D145">
-        <v>0.06514438272940322</v>
+        <v>-0.006215289943490666</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.009156301919875709</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C146">
-        <v>112.1972899728996</v>
+        <v>0.01060687124363113</v>
       </c>
       <c r="D146">
-        <v>0.06683038156215039</v>
+        <v>0.007199935164800223</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.01060687124363113</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C147">
-        <v>112.7861788617884</v>
+        <v>-0.01380251716572012</v>
       </c>
       <c r="D147">
-        <v>0.06179187905219737</v>
+        <v>-0.009369136894529362</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.01380251716572012</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C148">
-        <v>113.3750677506773</v>
+        <v>0.001214560753760807</v>
       </c>
       <c r="D148">
-        <v>0.05841853012910343</v>
+        <v>0.0008244428050391832</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.001214560753760807</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C149">
-        <v>113.9639566395662</v>
+        <v>0.0147042414521934</v>
       </c>
       <c r="D149">
-        <v>0.05757262431745387</v>
+        <v>0.009981226572060962</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.0147042414521934</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C150">
-        <v>114.5528455284551</v>
+        <v>0.01190383264375772</v>
       </c>
       <c r="D150">
-        <v>0.06740801209649383</v>
+        <v>0.008080311458400179</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.01190383264375772</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C151">
-        <v>115.141734417344</v>
+        <v>0.01256486668831691</v>
       </c>
       <c r="D151">
-        <v>0.06788149091115626</v>
+        <v>0.008529020804750511</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.01256486668831691</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C152">
-        <v>115.7306233062329</v>
+        <v>-0.009230729891301692</v>
       </c>
       <c r="D152">
-        <v>0.07184152748493204</v>
+        <v>-0.006265811587093764</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.009230729891301692</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C153">
-        <v>116.3195121951218</v>
+        <v>0.006070246187758421</v>
       </c>
       <c r="D153">
-        <v>0.06950689578806087</v>
+        <v>0.004120477941360807</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.006070246187758421</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C154">
-        <v>116.9084010840107</v>
+        <v>-0.001205652407323399</v>
       </c>
       <c r="D154">
-        <v>0.05975159481911064</v>
+        <v>-0.0008183958270659724</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.001205652407323399</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C155">
-        <v>117.7225706542778</v>
+        <v>0.01210608667077473</v>
       </c>
       <c r="D155">
-        <v>0.05384293915338288</v>
+        <v>0.008761145527929531</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.01210608667077473</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C156">
-        <v>118.3114595431667</v>
+        <v>0.005459558867453751</v>
       </c>
       <c r="D156">
-        <v>0.05628578605375749</v>
+        <v>0.003705943908547</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.005459558867453751</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C157">
-        <v>119.1256291134338</v>
+        <v>-0.001447605003083829</v>
       </c>
       <c r="D157">
-        <v>0.05898950490469277</v>
+        <v>-0.001047628225691918</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.001447605003083829</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C158">
-        <v>119.9397986837009</v>
+        <v>-0.0001408512110501192</v>
       </c>
       <c r="D158">
-        <v>0.06672653759398149</v>
+        <v>-0.000101933679425429</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.0001408512110501192</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C159">
-        <v>120.7539682539681</v>
+        <v>0.006665287425665412</v>
       </c>
       <c r="D159">
-        <v>0.06336353881130029</v>
+        <v>0.00482365232546253</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.006665287425665412</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C160">
-        <v>121.5681378242352</v>
+        <v>0.005846415802380101</v>
       </c>
       <c r="D160">
-        <v>0.06338622458587538</v>
+        <v>0.004231036920055443</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.005846415802380101</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C161">
-        <v>122.3823073945023</v>
+        <v>0.000602627074868245</v>
       </c>
       <c r="D161">
-        <v>0.06827355733574914</v>
+        <v>0.0004361197507974973</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.000602627074868245</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C162">
-        <v>123.1964769647694</v>
+        <v>0.002882284551636083</v>
       </c>
       <c r="D162">
-        <v>0.07575235193700902</v>
+        <v>0.002085902331324614</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.002882284551636083</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C163">
-        <v>124.0106465350366</v>
+        <v>0.002511909810833046</v>
       </c>
       <c r="D163">
-        <v>0.08018618509030336</v>
+        <v>0.001817863030740545</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.002511909810833046</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C164">
-        <v>124.8248161053037</v>
+        <v>-0.001317801044642408</v>
       </c>
       <c r="D164">
-        <v>0.08617425185192527</v>
+        <v>-0.000953689416154729</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.001317801044642408</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C165">
-        <v>125.6389856755708</v>
+        <v>0.008377919868417294</v>
       </c>
       <c r="D165">
-        <v>0.08499220010540737</v>
+        <v>0.006063080265708926</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.008377919868417294</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C166">
-        <v>126.4531552458379</v>
+        <v>0.002527141986534254</v>
       </c>
       <c r="D166">
-        <v>0.08456546396190011</v>
+        <v>0.001828886519309104</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.002527141986534254</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C167">
-        <v>127.2673248161051</v>
+        <v>0.002429691621459007</v>
       </c>
       <c r="D167">
-        <v>0.08947245058782589</v>
+        <v>0.001758361926730793</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.002429691621459007</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C168">
-        <v>128.0814943863722</v>
+        <v>-0.007260982092843982</v>
       </c>
       <c r="D168">
-        <v>0.09340275500827733</v>
+        <v>-0.005254755109648116</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.007260982092843982</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C169">
-        <v>128.8956639566393</v>
+        <v>-0.004861330539205788</v>
       </c>
       <c r="D169">
-        <v>0.09549389357707844</v>
+        <v>-0.003518133107056671</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.004861330539205788</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C170">
-        <v>129.7098335269064</v>
+        <v>-0.001219034214726911</v>
       </c>
       <c r="D170">
-        <v>0.09576242135186243</v>
+        <v>-0.0008822121011681378</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.001219034214726911</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C171">
-        <v>130.5240030971736</v>
+        <v>0.01417376976566231</v>
       </c>
       <c r="D171">
-        <v>0.1008791926480892</v>
+        <v>0.01025752276300103</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.01417376976566231</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C172">
-        <v>131.3381726674407</v>
+        <v>0.0006823299557385809</v>
       </c>
       <c r="D172">
-        <v>0.1010339193209543</v>
+        <v>0.0004938005321507302</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.0006823299557385809</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C173">
-        <v>132.1523422377078</v>
+        <v>0.005706805661482406</v>
       </c>
       <c r="D173">
-        <v>0.09691763737550807</v>
+        <v>0.004130001400085787</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.005706805661482406</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C174">
-        <v>132.9665118079749</v>
+        <v>-0.003364435943195687</v>
       </c>
       <c r="D174">
-        <v>0.09951524682998183</v>
+        <v>-0.002434834122647821</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.003364435943195687</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C175">
-        <v>133.7806813782421</v>
+        <v>-0.01405835672522304</v>
       </c>
       <c r="D175">
-        <v>0.111449809655036</v>
+        <v>-0.01017399862587832</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.01405835672522304</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C176">
-        <v>134.5948509485092</v>
+        <v>-0.008514959136545208</v>
       </c>
       <c r="D176">
-        <v>0.1040270983689003</v>
+        <v>-0.006162255251297624</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.008514959136545208</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C177">
-        <v>135.4090205187763</v>
+        <v>0.003520384789754694</v>
       </c>
       <c r="D177">
-        <v>0.1060353134634717</v>
+        <v>0.002547693924231314</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.003520384789754694</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C178">
-        <v>136.2231900890434</v>
+        <v>0.003896327157115742</v>
       </c>
       <c r="D178">
-        <v>0.105271167677873</v>
+        <v>0.002819762502636239</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.003896327157115742</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C179">
-        <v>137.0373596593106</v>
+        <v>0.01114983185930729</v>
       </c>
       <c r="D179">
-        <v>0.1124059124218445</v>
+        <v>0.00806910624282561</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.01114983185930729</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C180">
-        <v>137.8515292295777</v>
+        <v>-0.004846414959815526</v>
       </c>
       <c r="D180">
-        <v>0.1202125434792014</v>
+        <v>-0.003507338738469591</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.004846414959815526</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C181">
-        <v>138.6656987998448</v>
+        <v>3.269245229642337e-05</v>
       </c>
       <c r="D181">
-        <v>0.1189028634080718</v>
+        <v>2.365944834389076e-05</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>3.269245229642337e-05</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C182">
-        <v>139.4798683701119</v>
+        <v>0.007043131467832531</v>
       </c>
       <c r="D182">
-        <v>0.1281679280315194</v>
+        <v>0.005097097141307007</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.007043131467832531</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C183">
-        <v>140.2940379403791</v>
+        <v>0.01077768514921562</v>
       </c>
       <c r="D183">
-        <v>0.1240187317511435</v>
+        <v>0.00779978457237001</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.01077768514921562</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C184">
-        <v>141.1082075106462</v>
+        <v>0.006389593547910799</v>
       </c>
       <c r="D184">
-        <v>0.1245091396932637</v>
+        <v>0.004624133335564797</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.006389593547910799</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C185">
-        <v>141.9223770809133</v>
+        <v>0.008629398405776811</v>
       </c>
       <c r="D185">
-        <v>0.134163273474994</v>
+        <v>0.006245074672561839</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.008629398405776811</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C186">
-        <v>142.7365466511804</v>
+        <v>-0.00170345386299342</v>
       </c>
       <c r="D186">
-        <v>0.1390991091602267</v>
+        <v>-0.001232785424362406</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.00170345386299342</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C187">
-        <v>143.5507162214476</v>
+        <v>-0.0006149691282786307</v>
       </c>
       <c r="D187">
-        <v>0.1385211995572349</v>
+        <v>-0.0004450516648819146</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.0006149691282786307</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C188">
-        <v>144.3648857917147</v>
+        <v>0.007071454653498677</v>
       </c>
       <c r="D188">
-        <v>0.1410612208023595</v>
+        <v>0.005117594561999914</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.007071454653498677</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C189">
-        <v>145.1790553619818</v>
+        <v>0.005663958678188585</v>
       </c>
       <c r="D189">
-        <v>0.1444079495787638</v>
+        <v>0.004098993142316069</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.005663958678188585</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C190">
-        <v>145.9932249322489</v>
+        <v>0.003013538183562758</v>
       </c>
       <c r="D190">
-        <v>0.1412761875677808</v>
+        <v>0.002180890266043019</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.003013538183562758</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C191">
-        <v>146.8073945025161</v>
+        <v>0.0003869751697624935</v>
       </c>
       <c r="D191">
-        <v>0.1246836080721319</v>
+        <v>0.0002800529907132637</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.0003869751697624935</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C192">
-        <v>147.6215640727832</v>
+        <v>0.007373775180560038</v>
       </c>
       <c r="D192">
-        <v>0.1375596641368022</v>
+        <v>0.005336383193346748</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.007373775180560038</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C193">
-        <v>148.4357336430503</v>
+        <v>0.0002229764892920372</v>
       </c>
       <c r="D193">
-        <v>0.1390421535391103</v>
+        <v>0.0001613675438744684</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0002229764892920372</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C194">
-        <v>149.2499032133175</v>
+        <v>-0.005931970746455129</v>
       </c>
       <c r="D194">
-        <v>0.1451463435432031</v>
+        <v>-0.004292952825340072</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.005931970746455129</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C195">
-        <v>150.0640727835846</v>
+        <v>0.003743412987465611</v>
       </c>
       <c r="D195">
-        <v>0.1260238891295621</v>
+        <v>0.002709098889362969</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.003743412987465611</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C196">
-        <v>150.8782423538517</v>
+        <v>0.0171988893103574</v>
       </c>
       <c r="D196">
-        <v>0.1351172490191891</v>
+        <v>0.01244679443197393</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.0171988893103574</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C197">
-        <v>151.6924119241188</v>
+        <v>-0.01069686352691424</v>
       </c>
       <c r="D197">
-        <v>0.1529182121392364</v>
+        <v>-0.007741294160559628</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.01069686352691424</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C198">
-        <v>152.506581494386</v>
+        <v>0.002894037228612589</v>
       </c>
       <c r="D198">
-        <v>0.1570889373413375</v>
+        <v>0.002094407715114942</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.002894037228612589</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C199">
-        <v>153.3207510646531</v>
+        <v>-0.001101209904052602</v>
       </c>
       <c r="D199">
-        <v>0.1631864202349596</v>
+        <v>-0.0007969429336313144</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.001101209904052602</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C200">
-        <v>154.1349206349202</v>
+        <v>0.01028187516442713</v>
       </c>
       <c r="D200">
-        <v>0.1563710855521927</v>
+        <v>0.00744096809029253</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.01028187516442713</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C201">
-        <v>154.9490902051873</v>
+        <v>0.0112501300140142</v>
       </c>
       <c r="D201">
-        <v>0.165680967147649</v>
+        <v>0.008141691773845423</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.0112501300140142</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C202">
-        <v>155.7632597754545</v>
+        <v>-0.001887378943454365</v>
       </c>
       <c r="D202">
-        <v>0.1632846458337111</v>
+        <v>-0.00136589155848951</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.001887378943454365</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C203">
-        <v>156.5774293457216</v>
+        <v>0.01335187750467615</v>
       </c>
       <c r="D203">
-        <v>0.1706161065772933</v>
+        <v>0.009662721329424476</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.01335187750467615</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C204">
-        <v>157.3915989159887</v>
+        <v>-0.005979403569213559</v>
       </c>
       <c r="D204">
-        <v>0.1685409929898685</v>
+        <v>-0.004327279843995102</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.005979403569213559</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C205">
-        <v>158.2057684862558</v>
+        <v>0.0007067265083007257</v>
       </c>
       <c r="D205">
-        <v>0.1719598643455813</v>
+        <v>0.0005114562580008289</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.0007067265083007257</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C206">
-        <v>159.019938056523</v>
+        <v>0.01391256476951064</v>
       </c>
       <c r="D206">
-        <v>0.1695345514416031</v>
+        <v>0.01006848934153779</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.01391256476951064</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C207">
-        <v>159.8341076267901</v>
+        <v>0.007113029010683114</v>
       </c>
       <c r="D207">
-        <v>0.1770394616892184</v>
+        <v>0.005147681823344432</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.007113029010683114</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C208">
-        <v>160.6482771970572</v>
+        <v>-0.0008328250845002216</v>
       </c>
       <c r="D208">
-        <v>0.1699977256582028</v>
+        <v>-0.000602713491406857</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.0008328250845002216</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C209">
-        <v>161.4624467673243</v>
+        <v>0.003660422663253726</v>
       </c>
       <c r="D209">
-        <v>0.1542011222790282</v>
+        <v>0.002649038993245949</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.003660422663253726</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C210">
-        <v>162.2766163375915</v>
+        <v>0.00482296826628037</v>
       </c>
       <c r="D210">
-        <v>0.1245340664332177</v>
+        <v>0.003490370423290899</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.00482296826628037</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C211">
-        <v>163.0907859078586</v>
+        <v>-0.004513179825925917</v>
       </c>
       <c r="D211">
-        <v>0.1020988777327767</v>
+        <v>-0.003266177281227264</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.004513179825925917</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C212">
-        <v>163.9049554781257</v>
+        <v>-0.02391155355266861</v>
       </c>
       <c r="D212">
-        <v>0.1048609995421151</v>
+        <v>-0.01730473324460377</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.02391155355266861</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C213">
-        <v>164.7191250483928</v>
+        <v>0.01855567449402695</v>
       </c>
       <c r="D213">
-        <v>0.06686649756086895</v>
+        <v>0.01342869657488225</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.01855567449402695</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C214">
-        <v>165.53329461866</v>
+        <v>0.002136414337737591</v>
       </c>
       <c r="D214">
-        <v>0.07231647092457376</v>
+        <v>0.001546117868630491</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.002136414337737591</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C215">
-        <v>166.3474641889271</v>
+        <v>0.00879674352121107</v>
       </c>
       <c r="D215">
-        <v>0.1108102627082862</v>
+        <v>0.006366181926258205</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.00879674352121107</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C216">
-        <v>167.1616337591942</v>
+        <v>-0.0275573543516936</v>
       </c>
       <c r="D216">
-        <v>0.08397111571701583</v>
+        <v>-0.01994319043021184</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.0275573543516936</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C217">
-        <v>167.9758033294613</v>
+        <v>0.01310443394479588</v>
       </c>
       <c r="D217">
-        <v>0.1130820037600539</v>
+        <v>0.009483647025975662</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.01310443394479588</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C218">
-        <v>168.7899728997285</v>
+        <v>0.02565295426462821</v>
       </c>
       <c r="D218">
-        <v>0.0904374796605919</v>
+        <v>0.01856498071142137</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.02565295426462821</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C219">
-        <v>169.6041424699956</v>
+        <v>0.006010428881757512</v>
       </c>
       <c r="D219">
-        <v>0.07619790311109655</v>
+        <v>0.004349732787348239</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.006010428881757512</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C220">
-        <v>170.4183120402627</v>
+        <v>0.008787077909468977</v>
       </c>
       <c r="D220">
-        <v>0.02167284160544419</v>
+        <v>0.006359186946510259</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.008787077909468977</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C221">
-        <v>171.2324816105298</v>
+        <v>-0.00982157357082869</v>
       </c>
       <c r="D221">
-        <v>0.06599467432250997</v>
+        <v>-0.007107848944698659</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.00982157357082869</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C222">
-        <v>172.046651180797</v>
+        <v>0.0134164632085767</v>
       </c>
       <c r="D222">
-        <v>0.03257225010327683</v>
+        <v>0.009709461846511846</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.0134164632085767</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C223">
-        <v>172.8608207510641</v>
+        <v>-0.003453336802915707</v>
       </c>
       <c r="D223">
-        <v>-0.03927529094931376</v>
+        <v>-0.002499171458960258</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.003453336802915707</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C224">
-        <v>173.6749903213312</v>
+        <v>0.01056536244020556</v>
       </c>
       <c r="D224">
-        <v>0.03913872736196826</v>
+        <v>0.007646127143416355</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.01056536244020556</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C225">
-        <v>174.4891598915983</v>
+        <v>-0.002990444595223352</v>
       </c>
       <c r="D225">
-        <v>-0.05484504118776663</v>
+        <v>-0.002164177492237089</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.002990444595223352</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C226">
-        <v>175.3033294618655</v>
+        <v>0.004926932881849311</v>
       </c>
       <c r="D226">
-        <v>-0.009360167491469937</v>
+        <v>0.003565609363133749</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.004926932881849311</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C227">
-        <v>176.1174990321326</v>
+        <v>-0.003495116561030187</v>
       </c>
       <c r="D227">
-        <v>-0.03883256727546801</v>
+        <v>-0.002529407368459097</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.003495116561030187</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C228">
-        <v>176.9316686023997</v>
+        <v>0.01081532038709732</v>
       </c>
       <c r="D228">
-        <v>-0.03192129884833719</v>
+        <v>0.007827021102640009</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.01081532038709732</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C229">
-        <v>177.7458381726669</v>
+        <v>-0.01014784037970351</v>
       </c>
       <c r="D229">
-        <v>-0.0602908974015548</v>
+        <v>-0.007343967442048103</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.01014784037970351</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C230">
-        <v>178.560007742934</v>
+        <v>-0.02276447298326634</v>
       </c>
       <c r="D230">
-        <v>-0.06647020497111054</v>
+        <v>-0.01647459382184096</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.02276447298326634</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C231">
-        <v>179.3741773132011</v>
+        <v>-0.04275317136754619</v>
       </c>
       <c r="D231">
-        <v>-0.004953803479037157</v>
+        <v>-0.0309403663064649</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.04275317136754619</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C232">
-        <v>180.1883468834682</v>
+        <v>-0.03233133318514447</v>
       </c>
       <c r="D232">
-        <v>-0.00671815769648025</v>
+        <v>-0.02339810731991901</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.03233133318514447</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C233">
-        <v>181.0025164537354</v>
+        <v>0.003980491615562798</v>
       </c>
       <c r="D233">
-        <v>0.03189599149327222</v>
+        <v>0.002880672116848248</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.003980491615562798</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C234">
-        <v>181.8166860240025</v>
+        <v>-0.05475384759010993</v>
       </c>
       <c r="D234">
-        <v>0.002317504833845303</v>
+        <v>-0.03962522654897926</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.05475384759010993</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C235">
-        <v>182.6308555942696</v>
+        <v>0.007853952423793942</v>
       </c>
       <c r="D235">
-        <v>0.03109389446856865</v>
+        <v>0.005683886298320225</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.007853952423793942</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C236">
-        <v>183.4450251645367</v>
+        <v>0.05547337374052574</v>
       </c>
       <c r="D236">
-        <v>0.01912807806676646</v>
+        <v>0.04014594587689899</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.05547337374052574</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C237">
-        <v>184.2591947348039</v>
+        <v>-0.03867787409172863</v>
       </c>
       <c r="D237">
-        <v>-0.01438282481362501</v>
+        <v>-0.02799108356349511</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.03867787409172863</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C238">
-        <v>185.073364305071</v>
+        <v>0.0419516783746241</v>
       </c>
       <c r="D238">
-        <v>0.001237051033666966</v>
+        <v>0.03036032777365329</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.0419516783746241</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C239">
-        <v>185.8875338753381</v>
+        <v>-0.0326330062677096</v>
       </c>
       <c r="D239">
-        <v>-0.009206887729218157</v>
+        <v>-0.02361642739725603</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.0326330062677096</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C240">
-        <v>186.7017034456052</v>
+        <v>-0.02052064281625832</v>
       </c>
       <c r="D240">
-        <v>0.04917620101689658</v>
+        <v>-0.014850739378392</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.02052064281625832</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C241">
-        <v>187.5158730158724</v>
+        <v>-0.07857602420990961</v>
       </c>
       <c r="D241">
-        <v>0.04247919002438698</v>
+        <v>-0.05686527792428872</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.07857602420990961</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C242">
-        <v>188.3300425861395</v>
+        <v>0.06387215904823318</v>
       </c>
       <c r="D242">
-        <v>0.06126224354493013</v>
+        <v>0.04622412641035723</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.06387215904823318</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C243">
-        <v>189.1442121564066</v>
+        <v>-0.04816502984287485</v>
       </c>
       <c r="D243">
-        <v>0.06137333804172011</v>
+        <v>-0.03485691514411492</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.04816502984287485</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C244">
-        <v>189.9583817266737</v>
+        <v>-0.1035394361652502</v>
       </c>
       <c r="D244">
-        <v>0.06277899768153139</v>
+        <v>-0.07493123854080878</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.1035394361652502</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C245">
-        <v>190.7725512969409</v>
+        <v>0.1130023814935974</v>
       </c>
       <c r="D245">
-        <v>0.09111780649703737</v>
+        <v>0.08177954909723613</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.1130023814935974</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C246">
-        <v>191.3614401858298</v>
+        <v>-0.1498334118461635</v>
       </c>
       <c r="D246">
-        <v>0.0757795974015836</v>
+        <v>-0.1017067923268083</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.1498334118461635</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C247">
-        <v>192.1756097560969</v>
+        <v>0.06554821650910725</v>
       </c>
       <c r="D247">
-        <v>0.08434911363186182</v>
+        <v>0.04743708512502916</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.06554821650910725</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C248">
-        <v>192.7644986449858</v>
+        <v>-0.04698630713657437</v>
       </c>
       <c r="D248">
-        <v>0.09383517395338591</v>
+        <v>-0.03189426525940492</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.04698630713657437</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C249">
-        <v>193.3533875338747</v>
+        <v>0.01101827416160361</v>
       </c>
       <c r="D249">
-        <v>0.08133797086995034</v>
+        <v>0.00747919511506973</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.01101827416160361</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C250">
-        <v>193.9422764227636</v>
+        <v>-0.04522816875219426</v>
       </c>
       <c r="D250">
-        <v>0.05227904110661799</v>
+        <v>-0.03070084242174352</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.04522816875219426</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C251">
-        <v>194.5311653116525</v>
+        <v>-0.009851347208996053</v>
       </c>
       <c r="D251">
-        <v>0.07862078860952894</v>
+        <v>-0.006687086093676906</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.009851347208996053</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C252">
-        <v>195.1200542005414</v>
+        <v>0.0980723848626921</v>
       </c>
       <c r="D252">
-        <v>0.07382291810834735</v>
+        <v>0.0665714513026358</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.0980723848626921</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C253">
-        <v>195.7089430894303</v>
+        <v>-0.002812817746979057</v>
       </c>
       <c r="D253">
-        <v>0.08829180894701448</v>
+        <v>-0.001909338290573573</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.002812817746979057</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C254">
-        <v>196.2978319783192</v>
+        <v>0.0615605205868679</v>
       </c>
       <c r="D254">
-        <v>0.0945812500777052</v>
+        <v>0.04178722893453954</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.0615605205868679</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C255">
-        <v>196.8867208672081</v>
+        <v>-0.0471554358993691</v>
       </c>
       <c r="D255">
-        <v>0.08475647589790122</v>
+        <v>-0.03200906971951903</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.0471554358993691</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C256">
-        <v>197.7008904374752</v>
+        <v>0.04146963297560724</v>
       </c>
       <c r="D256">
-        <v>0.1134238489749001</v>
+        <v>0.0300114726888759</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.04146963297560724</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C257">
-        <v>198.2897793263641</v>
+        <v>-0.0190764759135833</v>
       </c>
       <c r="D257">
-        <v>0.1102475595160131</v>
+        <v>-0.01294909560000023</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.0190764759135833</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C258">
-        <v>199.1039488966313</v>
+        <v>-0.04829253637343633</v>
       </c>
       <c r="D258">
-        <v>0.08971513306112376</v>
+        <v>-0.03494919131067396</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.04829253637343633</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C259">
-        <v>199.9181184668984</v>
+        <v>0.02250979107296125</v>
       </c>
       <c r="D259">
-        <v>0.09951863253571612</v>
+        <v>0.01629028114176569</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.02250979107296125</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C260">
-        <v>200.5070073557873</v>
+        <v>-0.01665022590711907</v>
       </c>
       <c r="D260">
-        <v>0.1093324348755097</v>
+        <v>-0.01130215916239355</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.01665022590711907</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C261">
-        <v>201.3211769260544</v>
+        <v>0.08413582429959199</v>
       </c>
       <c r="D261">
-        <v>0.1142606897709481</v>
+        <v>0.06088889174901824</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.08413582429959199</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C262">
-        <v>201.9100658149433</v>
+        <v>-0.01067669472785582</v>
       </c>
       <c r="D262">
-        <v>0.1246981910729136</v>
+        <v>-0.007247331286413375</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.01067669472785582</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C263">
-        <v>202.7242353852104</v>
+        <v>0.02706824398562535</v>
       </c>
       <c r="D263">
-        <v>0.1343271638788259</v>
+        <v>0.01958922244593435</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.02706824398562535</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C264">
-        <v>203.5384049554776</v>
+        <v>0.0001600981939002821</v>
       </c>
       <c r="D264">
-        <v>0.1391395909657078</v>
+        <v>0.0001158626741790285</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.0001600981939002821</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C265">
-        <v>204.3525745257447</v>
+        <v>0.002025695026079966</v>
       </c>
       <c r="D265">
-        <v>0.124161424284152</v>
+        <v>0.001465990571629853</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.002025695026079966</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C266">
-        <v>205.1667440960118</v>
+        <v>0.04083903559350155</v>
       </c>
       <c r="D266">
-        <v>0.1123494977213893</v>
+        <v>0.0295551108946475</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.04083903559350155</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C267">
-        <v>205.980913666279</v>
+        <v>-0.02210388133346886</v>
       </c>
       <c r="D267">
-        <v>0.1210170270187627</v>
+        <v>-0.01599652524891537</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.02210388133346886</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C268">
-        <v>206.7950832365461</v>
+        <v>0.01234952325010674</v>
       </c>
       <c r="D268">
-        <v>0.1239415258927291</v>
+        <v>0.008937319989285229</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.01234952325010674</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C269">
-        <v>207.6092528068132</v>
+        <v>0.0136703542352441</v>
       </c>
       <c r="D269">
-        <v>0.1415024186913017</v>
+        <v>0.009893202166018921</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.0136703542352441</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C270">
-        <v>208.4234223770803</v>
+        <v>-0.01800970975408056</v>
       </c>
       <c r="D270">
-        <v>0.1386925582797133</v>
+        <v>-0.01303358321828157</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.01800970975408056</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C271">
-        <v>209.2375919473475</v>
+        <v>-0.04187680133769245</v>
       </c>
       <c r="D271">
-        <v>0.1532176334903556</v>
+        <v>-0.03030613944384049</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.04187680133769245</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C272">
-        <v>210.0517615176146</v>
+        <v>0.03796107207151866</v>
       </c>
       <c r="D272">
-        <v>0.1434461241278961</v>
+        <v>0.02747233568199068</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.03796107207151866</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C273">
-        <v>210.8659310878817</v>
+        <v>-0.006914207490032354</v>
       </c>
       <c r="D273">
-        <v>0.1463515118905493</v>
+        <v>-0.005003795171623139</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>-0.006914207490032354</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C274">
-        <v>211.6801006581488</v>
+        <v>0.02085110746205743</v>
       </c>
       <c r="D274">
-        <v>0.1455402127360526</v>
+        <v>0.01508989584013047</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.02085110746205743</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C275">
-        <v>212.494270228416</v>
+        <v>0.009063708777306445</v>
       </c>
       <c r="D275">
-        <v>0.1492896425969937</v>
+        <v>0.006559384033855777</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.009063708777306445</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C276">
-        <v>213.3084397986831</v>
+        <v>-0.01415847451596441</v>
       </c>
       <c r="D276">
-        <v>0.1479508421680558</v>
+        <v>-0.01024645362793422</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-0.01415847451596441</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C277">
-        <v>214.1226093689502</v>
+        <v>0.04131252929809648</v>
       </c>
       <c r="D277">
-        <v>0.1561026688311738</v>
+        <v>0.02989777713893676</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.04131252929809648</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C278">
-        <v>214.9367789392173</v>
+        <v>-0.00457734829686185</v>
       </c>
       <c r="D278">
-        <v>0.1562560933213271</v>
+        <v>-0.003312615847831252</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.00457734829686185</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C279">
-        <v>215.7509485094845</v>
+        <v>-0.02958926397616857</v>
       </c>
       <c r="D279">
-        <v>0.1627294766778213</v>
+        <v>-0.02141367849161002</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.02958926397616857</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C280">
-        <v>216.5651180797516</v>
+        <v>0.01412781555464271</v>
       </c>
       <c r="D280">
-        <v>0.1684253986325334</v>
+        <v>0.01022426581207106</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.01412781555464271</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C281">
-        <v>217.3792876500187</v>
+        <v>0.01414266300576195</v>
       </c>
       <c r="D281">
-        <v>0.1625694760450512</v>
+        <v>0.01023501087639383</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.01414266300576195</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C282">
-        <v>218.1934572202858</v>
+        <v>0.007102104340339643</v>
       </c>
       <c r="D282">
-        <v>0.1809734726107079</v>
+        <v>0.005139775665943885</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.007102104340339643</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C283">
-        <v>219.007626790553</v>
+        <v>0.01504147510056786</v>
       </c>
       <c r="D283">
-        <v>0.184086989770999</v>
+        <v>0.01088547900693083</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.01504147510056786</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C284">
-        <v>219.8217963608201</v>
+        <v>0.01387630530660644</v>
       </c>
       <c r="D284">
-        <v>0.187414363584864</v>
+        <v>0.01004224845627838</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.01387630530660644</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C285">
-        <v>220.6359659310872</v>
+        <v>0.006935184974492081</v>
       </c>
       <c r="D285">
-        <v>0.1990613741341196</v>
+        <v>0.005018976526189617</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.006935184974492081</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C286">
-        <v>221.4501355013543</v>
+        <v>-0.02158502448764743</v>
       </c>
       <c r="D286">
-        <v>0.1575024188455647</v>
+        <v>-0.01562102980947018</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.02158502448764743</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C287">
-        <v>222.2643050716215</v>
+        <v>-0.01702215828706777</v>
       </c>
       <c r="D287">
-        <v>0.1667692435700171</v>
+        <v>-0.01231889461955327</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.01702215828706777</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C288">
-        <v>223.0784746418886</v>
+        <v>0.0124907698057326</v>
       </c>
       <c r="D288">
-        <v>0.1727713392422619</v>
+        <v>0.009039539778620157</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.0124907698057326</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C289">
-        <v>223.8926442121557</v>
+        <v>0.004214493078541715</v>
       </c>
       <c r="D289">
-        <v>0.18758417303613</v>
+        <v>0.003050018407409334</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.004214493078541715</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C290">
-        <v>224.7068137824228</v>
+        <v>0.02530698910894813</v>
       </c>
       <c r="D290">
-        <v>0.1878079492954267</v>
+        <v>0.01831460656832002</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.02530698910894813</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C291">
-        <v>225.52098335269</v>
+        <v>-0.004049287678557612</v>
       </c>
       <c r="D291">
-        <v>0.1911598012394631</v>
+        <v>-0.00293045966058864</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.004049287678557612</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C292">
-        <v>226.3351529229571</v>
+        <v>0.02093207471730896</v>
       </c>
       <c r="D292">
-        <v>0.1858339159659106</v>
+        <v>0.01514849164615325</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.02093207471730896</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C293">
-        <v>227.1493224932242</v>
+        <v>-0.01408171462864605</v>
       </c>
       <c r="D293">
-        <v>0.199095533100978</v>
+        <v>-0.01019090268386844</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-0.01408171462864605</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C294">
-        <v>227.9634920634913</v>
+        <v>0.004186952070723393</v>
       </c>
       <c r="D294">
-        <v>0.2039366512564588</v>
+        <v>0.003030087046925631</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.004186952070723393</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C295">
-        <v>228.7776616337585</v>
+        <v>-0.001169162587713934</v>
       </c>
       <c r="D295">
-        <v>0.1878426667308921</v>
+        <v>-0.000846120125795939</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>-0.001169162587713934</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C296">
-        <v>229.5918312040256</v>
+        <v>0.00540330048955795</v>
       </c>
       <c r="D296">
-        <v>0.1968183877934005</v>
+        <v>0.003910355444128058</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.00540330048955795</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C297">
-        <v>230.4060007742927</v>
+        <v>-0.001929344268700284</v>
       </c>
       <c r="D297">
-        <v>0.1827165868592264</v>
+        <v>-0.001396261762470782</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-0.001929344268700284</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C298">
-        <v>231.2201703445598</v>
+        <v>0.01174759113604562</v>
       </c>
       <c r="D298">
-        <v>0.1903608292930525</v>
+        <v>0.008501703179936359</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.01174759113604562</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C299">
-        <v>232.034339914827</v>
+        <v>0.0002210999147873594</v>
       </c>
       <c r="D299">
-        <v>0.20354833963121</v>
+        <v>0.0001600094714620864</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.0002210999147873594</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C300">
-        <v>232.8485094850941</v>
+        <v>0.00932878777747348</v>
       </c>
       <c r="D300">
-        <v>0.2042757748783091</v>
+        <v>0.006751221062618171</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.00932878777747348</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C301">
-        <v>233.6626790553612</v>
+        <v>0.008208388749177509</v>
       </c>
       <c r="D301">
-        <v>0.2077703818121787</v>
+        <v>0.005940391006366503</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.008208388749177509</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C302">
-        <v>234.4768486256283</v>
+        <v>-0.008438965538033472</v>
       </c>
       <c r="D302">
-        <v>0.2201667227056704</v>
+        <v>-0.006107258868580519</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>-0.008438965538033472</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C303">
-        <v>235.2910181958955</v>
+        <v>0.0265219852994063</v>
       </c>
       <c r="D303">
-        <v>0.2127934807108258</v>
+        <v>0.0191938963611299</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.0265219852994063</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C304">
-        <v>236.1051877661626</v>
+        <v>0.004486887185622734</v>
       </c>
       <c r="D304">
-        <v>0.2238205084769653</v>
+        <v>0.003247149361283011</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.004486887185622734</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C305">
-        <v>236.9193573364297</v>
+        <v>0.004795075844647556</v>
       </c>
       <c r="D305">
-        <v>0.2264415615130385</v>
+        <v>0.003470184745482943</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.004795075844647556</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C306">
-        <v>237.7335269066969</v>
+        <v>0.01678449794681125</v>
       </c>
       <c r="D306">
-        <v>0.2262481541095043</v>
+        <v>0.01214690040839078</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.01678449794681125</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C307">
-        <v>238.547696476964</v>
+        <v>-0.05989057851046198</v>
       </c>
       <c r="D307">
-        <v>0.2113779966587296</v>
+        <v>-0.04334266624315086</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.05989057851046198</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C308">
-        <v>239.3618660472311</v>
+        <v>0.01335441398488069</v>
       </c>
       <c r="D308">
-        <v>0.2196400209922367</v>
+        <v>0.009664556973989482</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.01335441398488069</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C309">
-        <v>240.1760356174982</v>
+        <v>0.008649615458088178</v>
       </c>
       <c r="D309">
-        <v>0.2233075695493578</v>
+        <v>0.006259705704229012</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.008649615458088178</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C310">
-        <v>240.9902051877654</v>
+        <v>0.02134676339032993</v>
       </c>
       <c r="D310">
-        <v>0.2147777411960069</v>
+        <v>0.0154486008318814</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.02134676339032993</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C311">
-        <v>241.8043747580325</v>
+        <v>0.0003224837952044979</v>
       </c>
       <c r="D311">
-        <v>0.2181165990194536</v>
+        <v>0.0002333807395420557</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.0003224837952044979</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C312">
-        <v>242.6185443282996</v>
+        <v>0.004830351259215604</v>
       </c>
       <c r="D312">
-        <v>0.2358062946123206</v>
+        <v>0.003495713477350921</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.004830351259215604</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C313">
-        <v>243.4327138985667</v>
+        <v>-0.007675129172490358</v>
       </c>
       <c r="D313">
-        <v>0.2283981458376458</v>
+        <v>-0.005554472345566164</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.007675129172490358</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C314">
-        <v>244.2468834688339</v>
+        <v>0.01911130625610724</v>
       </c>
       <c r="D314">
-        <v>0.2341195502851769</v>
+        <v>0.013830805931928</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.01911130625610724</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C315">
-        <v>245.061053039101</v>
+        <v>0.006976531651388562</v>
       </c>
       <c r="D315">
-        <v>0.2156306400859213</v>
+        <v>0.005048899015862588</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.006976531651388562</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C316">
-        <v>245.8752226093681</v>
+        <v>-0.02319302872466711</v>
       </c>
       <c r="D316">
-        <v>0.2073504568437146</v>
+        <v>-0.01678473857128389</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-0.02319302872466711</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C317">
-        <v>246.6893921796352</v>
+        <v>0.01293490472149106</v>
       </c>
       <c r="D317">
-        <v>0.2184488647151794</v>
+        <v>0.009360959138716769</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.01293490472149106</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C318">
-        <v>247.5035617499024</v>
+        <v>-0.02032209448295852</v>
       </c>
       <c r="D318">
-        <v>0.2099259910061957</v>
+        <v>-0.01470705043169325</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.02032209448295852</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C319">
-        <v>248.3177313201695</v>
+        <v>0.01101611189350926</v>
       </c>
       <c r="D319">
-        <v>0.220255081030666</v>
+        <v>0.0079723334282732</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.01101611189350926</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C320">
-        <v>249.1319008904366</v>
+        <v>0.01900451100806322</v>
       </c>
       <c r="D320">
-        <v>0.2239267127235176</v>
+        <v>0.01375351847023621</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.01900451100806322</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C321">
-        <v>249.9460704607037</v>
+        <v>0.001048306375248664</v>
       </c>
       <c r="D321">
-        <v>0.2410886106014472</v>
+        <v>0.0007586567782949879</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.001048306375248664</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C322">
-        <v>250.7602400309709</v>
+        <v>0.005036075365295822</v>
       </c>
       <c r="D322">
-        <v>0.2581430980475615</v>
+        <v>0.003644595513386821</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.005036075365295822</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C323">
-        <v>251.574409601238</v>
+        <v>0.01786435732970837</v>
       </c>
       <c r="D323">
-        <v>0.2596507876591033</v>
+        <v>0.0129283920217047</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.01786435732970837</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C324">
-        <v>252.3885791715051</v>
+        <v>-0.01062557336927306</v>
       </c>
       <c r="D324">
-        <v>0.2620708556832332</v>
+        <v>-0.007689701646579763</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-0.01062557336927306</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C325">
-        <v>253.2027487417722</v>
+        <v>0.01589104123478524</v>
       </c>
       <c r="D325">
-        <v>0.2721016089722117</v>
+        <v>0.01150030795536778</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.01589104123478524</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C326">
-        <v>254.0169183120394</v>
+        <v>0.003777197514882147</v>
       </c>
       <c r="D326">
-        <v>0.2611795026903847</v>
+        <v>0.002733548669819535</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.003777197514882147</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C327">
-        <v>254.8310878823065</v>
+        <v>-0.0002787192605167021</v>
       </c>
       <c r="D327">
-        <v>0.2588921293677935</v>
+        <v>-0.0002017084520564944</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>-0.0002787192605167021</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C328">
-        <v>255.6452574525736</v>
+        <v>-0.02142937246822019</v>
       </c>
       <c r="D328">
-        <v>0.2464054728136872</v>
+        <v>-0.0155083848209612</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>-0.02142937246822019</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C329">
-        <v>256.4594270228408</v>
+        <v>0.01190639691410933</v>
       </c>
       <c r="D329">
-        <v>0.2622753238614574</v>
+        <v>0.008616630535912672</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.01190639691410933</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C330">
-        <v>257.2735965931079</v>
+        <v>0.005285301405583809</v>
       </c>
       <c r="D330">
-        <v>0.2625697907773568</v>
+        <v>0.003824959793578526</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.005285301405583809</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C331">
-        <v>258.0877661633751</v>
+        <v>-0.01229232908118405</v>
       </c>
       <c r="D331">
-        <v>0.2618975303899108</v>
+        <v>-0.00889592870811339</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>-0.01229232908118405</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C332">
-        <v>258.9019357336422</v>
+        <v>0.004811625442025402</v>
       </c>
       <c r="D332">
-        <v>0.2665484092054558</v>
+        <v>0.003482161648919954</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.004811625442025402</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C333">
-        <v>259.7161053039094</v>
+        <v>0.02549260671676556</v>
       </c>
       <c r="D333">
-        <v>0.269277397118259</v>
+        <v>0.01844893758038526</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.02549260671676556</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C334">
-        <v>260.5302748741765</v>
+        <v>-0.01067587750284549</v>
       </c>
       <c r="D334">
-        <v>0.2673847435011363</v>
+        <v>-0.007726106625898837</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>-0.01067587750284549</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C335">
-        <v>261.3444444444437</v>
+        <v>0.008245111549984863</v>
       </c>
       <c r="D335">
-        <v>0.2772886610464765</v>
+        <v>0.005966967208141358</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.008245111549984863</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C336">
-        <v>262.1586140147108</v>
+        <v>-0.02664435427149314</v>
       </c>
       <c r="D336">
-        <v>0.2856475157610575</v>
+        <v>-0.01928245448909574</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>-0.02664435427149314</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C337">
-        <v>262.972783584978</v>
+        <v>-0.01193256570347323</v>
       </c>
       <c r="D337">
-        <v>0.2916752279867964</v>
+        <v>-0.008635568825232899</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.01193256570347323</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C338">
-        <v>263.7869531552452</v>
+        <v>0.01599390704968329</v>
       </c>
       <c r="D338">
-        <v>0.2952860454888167</v>
+        <v>0.01157475169583319</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.01599390704968329</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C339">
-        <v>264.6011227255123</v>
+        <v>-0.01228230674853403</v>
       </c>
       <c r="D339">
-        <v>0.3093662567132285</v>
+        <v>-0.008888675570310561</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-0.01228230674853403</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C340">
-        <v>265.4152922957795</v>
+        <v>0.01488524369193023</v>
       </c>
       <c r="D340">
-        <v>0.3095604918522044</v>
+        <v>0.01077241471585715</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.01488524369193023</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C341">
-        <v>266.2294618660466</v>
+        <v>0.005291185609345384</v>
       </c>
       <c r="D341">
-        <v>0.3161932607509261</v>
+        <v>0.003829218177552894</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.005291185609345384</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C342">
-        <v>267.0436314363138</v>
+        <v>0.02473199783560798</v>
       </c>
       <c r="D342">
-        <v>0.3186830627066403</v>
+        <v>0.01789848677998381</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.02473199783560798</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C343">
-        <v>267.8578010065809</v>
+        <v>0.0245772087449101</v>
       </c>
       <c r="D343">
-        <v>0.331451578275891</v>
+        <v>0.01778646629090092</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.0245772087449101</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C344">
-        <v>268.6719705768481</v>
+        <v>0.002172730339887075</v>
       </c>
       <c r="D344">
-        <v>0.3378140611245835</v>
+        <v>0.001572399671204425</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.002172730339887075</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C345">
-        <v>269.4861401471152</v>
+        <v>0.003487558168713711</v>
       </c>
       <c r="D345">
-        <v>0.2961445730776167</v>
+        <v>0.002523937378292772</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.003487558168713711</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C346">
-        <v>270.3003097173824</v>
+        <v>0.01445531085181262</v>
       </c>
       <c r="D346">
-        <v>0.2867555755148228</v>
+        <v>0.01046127336341668</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.01445531085181262</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C347">
-        <v>271.1144792876495</v>
+        <v>-0.01573983896441966</v>
       </c>
       <c r="D347">
-        <v>0.2541439007617776</v>
+        <v>-0.01139088323944995</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>-0.01573983896441966</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C348">
-        <v>271.9286488579167</v>
+        <v>-0.003296331936359032</v>
       </c>
       <c r="D348">
-        <v>0.2769868063571619</v>
+        <v>-0.002385547418268654</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>-0.003296331936359032</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C349">
-        <v>272.7428184281839</v>
+        <v>-0.01799451115877382</v>
       </c>
       <c r="D349">
-        <v>0.2610128973425792</v>
+        <v>-0.01302258403176295</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>-0.01799451115877382</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C350">
-        <v>273.556987998451</v>
+        <v>0.02287003014215738</v>
       </c>
       <c r="D350">
-        <v>0.2557932155799936</v>
+        <v>0.01655098528141904</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.02287003014215738</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C351">
-        <v>274.3711575687182</v>
+        <v>0.0004243560460786</v>
       </c>
       <c r="D351">
-        <v>0.270021365207609</v>
+        <v>0.0003071054401358801</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.0004243560460786</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C352">
-        <v>275.1853271389853</v>
+        <v>-0.0009687939274281021</v>
       </c>
       <c r="D352">
-        <v>0.2769053848561919</v>
+        <v>-0.0007011138128774713</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>-0.0009687939274281021</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C353">
-        <v>275.9994967092525</v>
+        <v>0.006702377884887589</v>
       </c>
       <c r="D353">
-        <v>0.2660040785577283</v>
+        <v>0.004850494600739453</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.006702377884887589</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C354">
-        <v>276.8136662795196</v>
+        <v>0.003932742382743548</v>
       </c>
       <c r="D354">
-        <v>0.2601271350863933</v>
+        <v>0.002846116113000502</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.003932742382743548</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C355">
-        <v>277.6278358497868</v>
+        <v>-0.002727501672319832</v>
       </c>
       <c r="D355">
-        <v>0.2485116735732803</v>
+        <v>-0.001973886337403529</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.002727501672319832</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C356">
-        <v>278.4420054200539</v>
+        <v>0.0142725279591831</v>
       </c>
       <c r="D356">
-        <v>0.2537441136141556</v>
+        <v>0.01032899382784974</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.0142725279591831</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C357">
-        <v>279.2561749903211</v>
+        <v>0.01204593910181906</v>
       </c>
       <c r="D357">
-        <v>0.265076354945841</v>
+        <v>0.0087176168783252</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.01204593910181906</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C358">
-        <v>280.0703445605882</v>
+        <v>0.008686531453631297</v>
       </c>
       <c r="D358">
-        <v>0.242426998674197</v>
+        <v>0.006286421720565029</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.008686531453631297</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C359">
-        <v>280.8845141308554</v>
+        <v>0.005203546325700081</v>
       </c>
       <c r="D359">
-        <v>0.2467032066364774</v>
+        <v>0.003765793840782402</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.005203546325700081</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C360">
-        <v>281.6986837011225</v>
+        <v>0.02029098156882103</v>
       </c>
       <c r="D360">
-        <v>0.2631583499976332</v>
+        <v>0.01468453409127959</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.02029098156882103</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C361">
-        <v>282.5128532713897</v>
+        <v>0.0002799121094252399</v>
       </c>
       <c r="D361">
-        <v>0.2759004000274258</v>
+        <v>0.000202571713915156</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.0002799121094252399</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C362">
-        <v>283.3270228416569</v>
+        <v>0.009558478159821249</v>
       </c>
       <c r="D362">
-        <v>0.2737838190785561</v>
+        <v>0.006917447434594558</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.009558478159821249</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C363">
-        <v>284.141192411924</v>
+        <v>0.003588051683899529</v>
       </c>
       <c r="D363">
-        <v>0.2800467463708233</v>
+        <v>0.002596664291216797</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.003588051683899529</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C364">
-        <v>284.9553619821912</v>
+        <v>0.01840069796876875</v>
       </c>
       <c r="D364">
-        <v>0.2866752922820429</v>
+        <v>0.01331654043986319</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.01840069796876875</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C365">
-        <v>285.7695315524583</v>
+        <v>0.009168969140954886</v>
       </c>
       <c r="D365">
-        <v>0.2687558011731734</v>
+        <v>0.006635560703437455</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.009168969140954886</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C366">
-        <v>286.5837011227255</v>
+        <v>-0.0600498671836176</v>
       </c>
       <c r="D366">
-        <v>0.2842993917821756</v>
+        <v>-0.04345794306913264</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.0600498671836176</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C367">
-        <v>287.3978706929926</v>
+        <v>-0.01353047716827227</v>
       </c>
       <c r="D367">
-        <v>0.2731462193471459</v>
+        <v>-0.009791973472297559</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>-0.01353047716827227</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C368">
-        <v>288.2120402632598</v>
+        <v>-0.04699665941055997</v>
       </c>
       <c r="D368">
-        <v>0.2861632682059033</v>
+        <v>-0.03401136829925778</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.04699665941055997</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C369">
-        <v>289.0262098335269</v>
+        <v>0.03291889368894196</v>
       </c>
       <c r="D369">
-        <v>0.2892530916424724</v>
+        <v>0.02382332342981689</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.03291889368894196</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C370">
-        <v>289.8403794037941</v>
+        <v>-0.02301998799811766</v>
       </c>
       <c r="D370">
-        <v>0.2998635750577097</v>
+        <v>-0.01665950941765341</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.02301998799811766</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C371">
-        <v>290.6545489740612</v>
+        <v>-0.00752207937449878</v>
       </c>
       <c r="D371">
-        <v>0.3184530187723479</v>
+        <v>-0.005443710578391518</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>-0.00752207937449878</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C372">
-        <v>291.4687185443284</v>
+        <v>0.0205041754879236</v>
       </c>
       <c r="D372">
-        <v>0.3140740629036834</v>
+        <v>0.01483882201286174</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.0205041754879236</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C373">
-        <v>292.2828881145956</v>
+        <v>0.009920555422252342</v>
       </c>
       <c r="D373">
-        <v>0.3102625220570756</v>
+        <v>0.00717948187022859</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.009920555422252342</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C374">
-        <v>293.0970576848627</v>
+        <v>-0.01570986412438824</v>
       </c>
       <c r="D374">
-        <v>0.3071741088748993</v>
+        <v>-0.0113691905205034</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>-0.01570986412438824</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C375">
-        <v>293.9112272551299</v>
+        <v>-0.0084692587175903</v>
       </c>
       <c r="D375">
-        <v>0.3052421397043334</v>
+        <v>-0.006129181969068622</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-0.0084692587175903</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C376">
-        <v>294.725396825397</v>
+        <v>-0.01673903265508514</v>
       </c>
       <c r="D376">
-        <v>0.2921068640667948</v>
+        <v>-0.01211399728716633</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.01673903265508514</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C377">
-        <v>295.5395663956642</v>
+        <v>0.007540465319531897</v>
       </c>
       <c r="D377">
-        <v>0.2947571923799507</v>
+        <v>0.005457016442167673</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.007540465319531897</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C378">
-        <v>296.3537359659313</v>
+        <v>0.0163308842694061</v>
       </c>
       <c r="D378">
-        <v>0.293847283328723</v>
+        <v>0.01181862129150656</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.0163308842694061</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C379">
-        <v>297.1679055361985</v>
+        <v>-0.03263996990732565</v>
       </c>
       <c r="D379">
-        <v>0.2905683492863577</v>
+        <v>-0.02362146696633722</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.03263996990732565</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C380">
-        <v>297.9820751064656</v>
+        <v>0.006162440006343139</v>
       </c>
       <c r="D380">
-        <v>0.2897395279849981</v>
+        <v>0.004459742869101079</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.006162440006343139</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C381">
-        <v>298.7962446767328</v>
+        <v>0.02371349444492932</v>
       </c>
       <c r="D381">
-        <v>0.2745399958487232</v>
+        <v>0.01716139834925524</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.02371349444492932</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C382">
-        <v>299.6104142469999</v>
+        <v>0.01836255850020585</v>
       </c>
       <c r="D382">
-        <v>0.2781426391623716</v>
+        <v>0.01328893899907356</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.01836255850020585</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C383">
-        <v>300.4245838172671</v>
+        <v>-0.003050203177916266</v>
       </c>
       <c r="D383">
-        <v>0.2474257430928618</v>
+        <v>-0.00220742463342759</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.003050203177916266</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C384">
-        <v>301.2387533875342</v>
+        <v>0.009025499705141549</v>
       </c>
       <c r="D384">
-        <v>0.2604433604011659</v>
+        <v>0.006531732221108397</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.009025499705141549</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C385">
-        <v>302.0529229578014</v>
+        <v>0.00955239241577921</v>
       </c>
       <c r="D385">
-        <v>0.2433249474222134</v>
+        <v>0.006913043196408592</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.00955239241577921</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C386">
-        <v>302.8670925280686</v>
+        <v>-0.02582376485818028</v>
       </c>
       <c r="D386">
-        <v>0.2456996169893552</v>
+        <v>-0.0186885959232168</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>-0.02582376485818028</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C387">
-        <v>303.6812620983357</v>
+        <v>0.02239985647471965</v>
       </c>
       <c r="D387">
-        <v>0.2580873238449654</v>
+        <v>0.0162107217399588</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.02239985647471965</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C388">
-        <v>304.4954316686029</v>
+        <v>-0.01607282822012657</v>
       </c>
       <c r="D388">
-        <v>0.2841852511291839</v>
+        <v>-0.01163186675524849</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>-0.01607282822012657</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C389">
-        <v>305.30960123887</v>
+        <v>0.01875885910117248</v>
       </c>
       <c r="D389">
-        <v>0.305518929940569</v>
+        <v>0.01357574078170546</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.01875885910117248</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C390">
-        <v>306.1237708091372</v>
+        <v>0.004452742178585822</v>
       </c>
       <c r="D390">
-        <v>0.3075637534402818</v>
+        <v>0.003222438702600488</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.004452742178585822</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C391">
-        <v>306.9379403794043</v>
+        <v>0.01529075949099301</v>
       </c>
       <c r="D391">
-        <v>0.3024812280478801</v>
+        <v>0.01106588551497512</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.01529075949099301</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C392">
-        <v>307.7521099496715</v>
+        <v>0.02678923304320779</v>
       </c>
       <c r="D392">
-        <v>0.2889130501096248</v>
+        <v>0.01938730290439446</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.02678923304320779</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C393">
-        <v>308.5662795199386</v>
+        <v>-0.006310509935227415</v>
       </c>
       <c r="D393">
-        <v>0.3054700926267042</v>
+        <v>-0.004566900717094769</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>-0.006310509935227415</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C394">
-        <v>309.3804490902058</v>
+        <v>-0.005492808583243303</v>
       </c>
       <c r="D394">
-        <v>0.298901179866123</v>
+        <v>-0.003975132234186735</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>-0.005492808583243303</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C395">
-        <v>310.1946186604729</v>
+        <v>-0.004450709862064528</v>
       </c>
       <c r="D395">
-        <v>0.3048153407890667</v>
+        <v>-0.003220967920068849</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>-0.004450709862064528</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C396">
-        <v>311.0087882307401</v>
+        <v>-0.002784159286155941</v>
       </c>
       <c r="D396">
-        <v>0.31156441111623</v>
+        <v>-0.002014889314962058</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>-0.002784159286155941</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C397">
-        <v>311.8229578010072</v>
+        <v>-0.01892923562116611</v>
       </c>
       <c r="D397">
-        <v>0.30773902213924</v>
+        <v>-0.01369904185552066</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.01892923562116611</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C398">
-        <v>312.6371273712744</v>
+        <v>0.003819386094175314</v>
       </c>
       <c r="D398">
-        <v>0.2999718841065981</v>
+        <v>0.0027640804422127</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.003819386094175314</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C399">
-        <v>313.4512969415416</v>
+        <v>-0.001311269234069101</v>
       </c>
       <c r="D399">
-        <v>0.305743537324552</v>
+        <v>-0.000948962360703213</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-0.001311269234069101</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C400">
-        <v>314.2654665118087</v>
+        <v>-0.004725269327185977</v>
       </c>
       <c r="D400">
-        <v>0.2984178366796713</v>
+        <v>-0.003419665938298515</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>-0.004725269327185977</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C401">
-        <v>315.0796360820759</v>
+        <v>-0.001194413740084777</v>
       </c>
       <c r="D401">
-        <v>0.2981875548729785</v>
+        <v>-0.0008643943234524731</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>-0.001194413740084777</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C402">
-        <v>315.893805652343</v>
+        <v>-0.02190403407422892</v>
       </c>
       <c r="D402">
-        <v>0.3077325314953225</v>
+        <v>-0.01585189627266776</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-0.02190403407422892</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C403">
-        <v>316.7079752226102</v>
+        <v>0.005191766509122786</v>
       </c>
       <c r="D403">
-        <v>0.3092885474318257</v>
+        <v>0.003757268816128882</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.005191766509122786</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C404">
-        <v>317.5221447928773</v>
+        <v>-0.04426609530666692</v>
       </c>
       <c r="D404">
-        <v>0.3128219823908027</v>
+        <v>-0.03203526568756083</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-0.04426609530666692</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C405">
-        <v>318.3363143631445</v>
+        <v>0.01875967829337721</v>
       </c>
       <c r="D405">
-        <v>0.3173720697866824</v>
+        <v>0.01357633362911489</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.01875967829337721</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C406">
-        <v>319.1504839334116</v>
+        <v>-0.02466933178112907</v>
       </c>
       <c r="D406">
-        <v>0.3270847083109854</v>
+        <v>-0.01785313550852163</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-0.02466933178112907</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C407">
-        <v>319.9646535036788</v>
+        <v>0.003422134487256479</v>
       </c>
       <c r="D407">
-        <v>0.3255776226242186</v>
+        <v>0.002476590418882391</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.003422134487256479</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C408">
-        <v>320.7788230739459</v>
+        <v>0.01785191482435611</v>
       </c>
       <c r="D408">
-        <v>0.3248497643048858</v>
+        <v>0.01291938741079386</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.01785191482435611</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C409">
-        <v>321.5929926442131</v>
+        <v>0.03760970294184141</v>
       </c>
       <c r="D409">
-        <v>0.3318779814702206</v>
+        <v>0.02721805069602937</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.03760970294184141</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C410">
-        <v>322.4071622144803</v>
+        <v>0.03074394813100856</v>
       </c>
       <c r="D410">
-        <v>0.3337091605627909</v>
+        <v>0.02224932061069127</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.03074394813100856</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C411">
-        <v>323.2213317847474</v>
+        <v>0.002946793573112672</v>
       </c>
       <c r="D411">
-        <v>0.3361027418031567</v>
+        <v>0.002132587353527958</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.002946793573112672</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C412">
-        <v>324.0355013550146</v>
+        <v>-0.00732442343489037</v>
       </c>
       <c r="D412">
-        <v>0.3229505769748725</v>
+        <v>-0.005300667454840337</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>-0.00732442343489037</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C413">
-        <v>324.8496709252817</v>
+        <v>-0.01955309079385792</v>
       </c>
       <c r="D413">
-        <v>0.3234583814184774</v>
+        <v>-0.01415052432916752</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>-0.01955309079385792</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C414">
-        <v>325.6638404955489</v>
+        <v>0.02386034124017744</v>
       </c>
       <c r="D414">
-        <v>0.3218829765177116</v>
+        <v>0.01726767101840643</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.02386034124017744</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C415">
-        <v>326.478010065816</v>
+        <v>-0.00946645512824773</v>
       </c>
       <c r="D415">
-        <v>0.3247389362965243</v>
+        <v>-0.006850850590092928</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-0.00946645512824773</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C416">
-        <v>327.2921796360832</v>
+        <v>0.008522892758485945</v>
       </c>
       <c r="D416">
-        <v>0.3358285386310502</v>
+        <v>0.006167996794231904</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.008522892758485945</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C417">
-        <v>328.1063492063503</v>
+        <v>0.00972608005892095</v>
       </c>
       <c r="D417">
-        <v>0.3409580910412124</v>
+        <v>0.007038740522006088</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.00972608005892095</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C418">
-        <v>328.9205187766175</v>
+        <v>-0.005512765113288687</v>
       </c>
       <c r="D418">
-        <v>0.3461298440255283</v>
+        <v>-0.00398957472652261</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-0.005512765113288687</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C419">
-        <v>329.7346883468846</v>
+        <v>-0.01119321664646478</v>
       </c>
       <c r="D419">
-        <v>0.3437367670347605</v>
+        <v>-0.008100503707945581</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.01119321664646478</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C420">
-        <v>330.5488579171518</v>
+        <v>0.008317525014403415</v>
       </c>
       <c r="D420">
-        <v>0.3442419072223667</v>
+        <v>0.006019372656508423</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.008317525014403415</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C421">
-        <v>331.3630274874189</v>
+        <v>-0.01055706156639591</v>
       </c>
       <c r="D421">
-        <v>0.3501773980806572</v>
+        <v>-0.007640119821196292</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>-0.01055706156639591</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C422">
-        <v>332.1771970576861</v>
+        <v>-0.0003318589345546741</v>
       </c>
       <c r="D422">
-        <v>0.3442665388033405</v>
+        <v>-0.0002401655051252891</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>-0.0003318589345546741</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C423">
-        <v>332.9913666279533</v>
+        <v>0.01375525847105319</v>
       </c>
       <c r="D423">
-        <v>0.3494260080425857</v>
+        <v>0.009954647155311526</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.01375525847105319</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C424">
-        <v>333.8055361982204</v>
+        <v>0.002242373369629291</v>
       </c>
       <c r="D424">
-        <v>0.3574414886302966</v>
+        <v>0.001622800162723328</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.002242373369629291</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C425">
-        <v>334.6197057684876</v>
+        <v>0.005092030402422232</v>
       </c>
       <c r="D425">
-        <v>0.3538037644613091</v>
+        <v>0.003685090037886521</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.005092030402422232</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C426">
-        <v>335.4338753387547</v>
+        <v>0.006557127447509359</v>
       </c>
       <c r="D426">
-        <v>0.3536519045520009</v>
+        <v>0.004745377211902466</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.006557127447509359</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C427">
-        <v>336.2480449090219</v>
+        <v>0.0139968759090463</v>
       </c>
       <c r="D427">
-        <v>0.3557173857853348</v>
+        <v>0.01012950510849746</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.0139968759090463</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C428">
-        <v>337.062214479289</v>
+        <v>-0.002171860024358097</v>
       </c>
       <c r="D428">
-        <v>0.3431541673284175</v>
+        <v>-0.001571769825969383</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>-0.002171860024358097</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C429">
-        <v>337.8763840495562</v>
+        <v>-0.00104891606431945</v>
       </c>
       <c r="D429">
-        <v>0.347997346494581</v>
+        <v>-0.0007590980087950828</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>-0.00104891606431945</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C430">
-        <v>338.6905536198233</v>
+        <v>0.01012835835276604</v>
       </c>
       <c r="D430">
-        <v>0.3353546596099229</v>
+        <v>0.007329868346459249</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.01012835835276604</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C431">
-        <v>339.5047231900905</v>
+        <v>0.002638910782256865</v>
       </c>
       <c r="D431">
-        <v>0.3535000114016063</v>
+        <v>0.00190977332537924</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.002638910782256865</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C432">
-        <v>340.3188927603576</v>
+        <v>0.003449388084997729</v>
       </c>
       <c r="D432">
-        <v>0.3587061292229077</v>
+        <v>0.0024963137813912</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.003449388084997729</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C433">
-        <v>341.1330623306248</v>
+        <v>-0.01895357462096303</v>
       </c>
       <c r="D433">
-        <v>0.352152783820554</v>
+        <v>-0.01371665593057432</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>-0.01895357462096303</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C434">
-        <v>341.9472319008919</v>
+        <v>0.0007317965932136516</v>
       </c>
       <c r="D434">
-        <v>0.3491937066760877</v>
+        <v>0.0005295994175777328</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.0007317965932136516</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C435">
-        <v>342.7614014711591</v>
+        <v>-0.00227031479111961</v>
       </c>
       <c r="D435">
-        <v>0.3536883539612735</v>
+        <v>-0.00164302130160918</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>-0.00227031479111961</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C436">
-        <v>343.5755710414263</v>
+        <v>0.004115721441217524</v>
       </c>
       <c r="D436">
-        <v>0.3470933546837012</v>
+        <v>0.002978537613312745</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.004115721441217524</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C437">
-        <v>344.3897406116934</v>
+        <v>0.0159812173971714</v>
       </c>
       <c r="D437">
-        <v>0.3403050326349907</v>
+        <v>0.01156556822512304</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.0159812173971714</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C438">
-        <v>345.2039101819606</v>
+        <v>0.007392194034024691</v>
       </c>
       <c r="D438">
-        <v>0.3493190368103681</v>
+        <v>0.005349712872874897</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.007392194034024691</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C439">
-        <v>346.0180797522277</v>
+        <v>0.007453009248988174</v>
       </c>
       <c r="D439">
-        <v>0.3631727361091243</v>
+        <v>0.00539372469627392</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.007453009248988174</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C440">
-        <v>346.8322493224949</v>
+        <v>-0.003448661411289855</v>
       </c>
       <c r="D440">
-        <v>0.3722601831399801</v>
+        <v>-0.002495787889393303</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>-0.003448661411289855</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C441">
-        <v>347.646418892762</v>
+        <v>0.0007279571359424253</v>
       </c>
       <c r="D441">
-        <v>0.3700565627419309</v>
+        <v>0.0005268208116734245</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.0007279571359424253</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C442">
-        <v>348.4605884630292</v>
+        <v>0.008553631311913001</v>
       </c>
       <c r="D442">
-        <v>0.3761115232009428</v>
+        <v>0.006190242210708445</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.008553631311913001</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C443">
-        <v>349.2747580332963</v>
+        <v>-0.008518134759511575</v>
       </c>
       <c r="D443">
-        <v>0.3761673959656209</v>
+        <v>-0.006164553441927413</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>-0.008518134759511575</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C444">
-        <v>350.0889276035635</v>
+        <v>0.007435307153412118</v>
       </c>
       <c r="D444">
-        <v>0.3626871917864933</v>
+        <v>0.005380913732689333</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.007435307153412118</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C445">
-        <v>350.9030971738306</v>
+        <v>0.01155110291161687</v>
       </c>
       <c r="D445">
-        <v>0.3658252351768468</v>
+        <v>0.008359505129025281</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.01155110291161687</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C446">
-        <v>351.7172667440978</v>
+        <v>-0.005242321502777259</v>
       </c>
       <c r="D446">
-        <v>0.3489735599385668</v>
+        <v>-0.003793855342280197</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-0.005242321502777259</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C447">
-        <v>352.531436314365</v>
+        <v>-0.0002188451985345452</v>
       </c>
       <c r="D447">
-        <v>0.366174358161666</v>
+        <v>-0.0001583777387847729</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>-0.0002188451985345452</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C448">
-        <v>353.3456058846321</v>
+        <v>0.002976563417149691</v>
       </c>
       <c r="D448">
-        <v>0.37501668599409</v>
+        <v>0.002154131717371126</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.002976563417149691</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C449">
-        <v>354.1597754548993</v>
+        <v>-0.01810484445804406</v>
       </c>
       <c r="D449">
-        <v>0.3729252247819591</v>
+        <v>-0.01310243197253614</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>-0.01810484445804406</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C450">
-        <v>354.9739450251664</v>
+        <v>0.006979501772298669</v>
       </c>
       <c r="D450">
-        <v>0.3835673982126139</v>
+        <v>0.005051048485153256</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.006979501772298669</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C451">
-        <v>355.7881145954336</v>
+        <v>-0.01821936634815557</v>
       </c>
       <c r="D451">
-        <v>0.382038299869684</v>
+        <v>-0.01318531118633053</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>-0.01821936634815557</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C452">
-        <v>356.6022841657007</v>
+        <v>0.02614925251451261</v>
       </c>
       <c r="D452">
-        <v>0.389203158465511</v>
+        <v>0.01892415054976317</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.02614925251451261</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C453">
-        <v>357.4164537359679</v>
+        <v>0.007502532389144001</v>
       </c>
       <c r="D453">
-        <v>0.3878772974005618</v>
+        <v>0.005429564472553787</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.007502532389144001</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C454">
-        <v>358.230623306235</v>
+        <v>-0.009444021020276416</v>
       </c>
       <c r="D454">
-        <v>0.3869928513683424</v>
+        <v>-0.006834615080628052</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>-0.009444021020276416</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C455">
-        <v>359.0447928765022</v>
+        <v>-0.004264323797571024</v>
       </c>
       <c r="D455">
-        <v>0.3933593205184022</v>
+        <v>-0.003086080777773084</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>-0.004264323797571024</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C456">
-        <v>359.8589624467693</v>
+        <v>0.006477232746617823</v>
       </c>
       <c r="D456">
-        <v>0.396249713234944</v>
+        <v>0.004687557610865664</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.006477232746617823</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C457">
-        <v>360.6731320170365</v>
+        <v>-0.009504048387825037</v>
       </c>
       <c r="D457">
-        <v>0.3941972965002533</v>
+        <v>-0.006878056740765971</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>-0.009504048387825037</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C458">
-        <v>361.4873015873036</v>
+        <v>-0.009782645684660807</v>
       </c>
       <c r="D458">
-        <v>0.3869873173141151</v>
+        <v>-0.007079676928002723</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>-0.009782645684660807</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C459">
-        <v>362.3014711575708</v>
+        <v>0.01299007448600964</v>
       </c>
       <c r="D459">
-        <v>0.3838373520068163</v>
+        <v>0.009400885363336962</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.01299007448600964</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C460">
-        <v>363.115640727838</v>
+        <v>0.0199645554069301</v>
       </c>
       <c r="D460">
-        <v>0.3827948338854312</v>
+        <v>0.01444830027053932</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.0199645554069301</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C461">
-        <v>363.9298102981051</v>
+        <v>0.01309591292856727</v>
       </c>
       <c r="D461">
-        <v>0.3669661423105014</v>
+        <v>0.009477480387221541</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.01309591292856727</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C462">
-        <v>364.7439798683723</v>
+        <v>-0.003175635661201603</v>
       </c>
       <c r="D462">
-        <v>0.3652395484410981</v>
+        <v>-0.002298199817009032</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>-0.003175635661201603</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C463">
-        <v>365.5581494386394</v>
+        <v>0.008725798861648926</v>
       </c>
       <c r="D463">
-        <v>0.3756233474202497</v>
+        <v>0.006314839448399207</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.008725798861648926</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C464">
-        <v>366.3723190089066</v>
+        <v>8.051819821552897e-05</v>
       </c>
       <c r="D464">
-        <v>0.3530703430750826</v>
+        <v>5.827082453621498e-05</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>8.051819821552897e-05</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C465">
-        <v>367.1864885791737</v>
+        <v>-0.01942631187722466</v>
       </c>
       <c r="D465">
-        <v>0.356814833088324</v>
+        <v>-0.01405877473504156</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.01942631187722466</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C466">
-        <v>368.0006581494409</v>
+        <v>0.004522231916906705</v>
       </c>
       <c r="D466">
-        <v>0.3764376734309962</v>
+        <v>0.003272728257489989</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.004522231916906705</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C467">
-        <v>368.814827719708</v>
+        <v>-0.02428493622814809</v>
       </c>
       <c r="D467">
-        <v>0.3661157955274942</v>
+        <v>-0.01757494938020939</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.02428493622814809</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C468">
-        <v>369.6289972899752</v>
+        <v>0.02478805709312049</v>
       </c>
       <c r="D468">
-        <v>0.3503266879951233</v>
+        <v>0.01793905672852386</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.02478805709312049</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C469">
-        <v>370.4431668602423</v>
+        <v>0.0127426718401864</v>
       </c>
       <c r="D469">
-        <v>0.336009985806595</v>
+        <v>0.009221840669291876</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.0127426718401864</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C470">
-        <v>371.2573364305095</v>
+        <v>-0.003014003144617305</v>
       </c>
       <c r="D470">
-        <v>0.3482395542601197</v>
+        <v>-0.002181226757229187</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>-0.003014003144617305</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C471">
-        <v>372.0715060007767</v>
+        <v>0.01533642794784384</v>
       </c>
       <c r="D471">
-        <v>0.3325966682990748</v>
+        <v>0.01109893566630701</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.01533642794784384</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C472">
-        <v>372.8856755710438</v>
+        <v>-0.002203582446228758</v>
       </c>
       <c r="D472">
-        <v>0.3536313818672428</v>
+        <v>-0.001594727265649554</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>-0.002203582446228758</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C473">
-        <v>373.699845141311</v>
+        <v>0.0103252722131808</v>
       </c>
       <c r="D473">
-        <v>0.3510999860063064</v>
+        <v>0.007472374429099884</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.0103252722131808</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C474">
-        <v>374.5140147115781</v>
+        <v>-0.001910697361205749</v>
       </c>
       <c r="D474">
-        <v>0.3642752522526385</v>
+        <v>-0.001382767040794962</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>-0.001910697361205749</v>
+        <v>0.4</v>
       </c>
       <c r="C475">
-        <v>374.9140147115781</v>
+        <v>-0.001509490896090426</v>
       </c>
       <c r="D475">
-        <v>0.3597780808379895</v>
+        <v>-0.0009642913048963257</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>-0.001509490896090426</v>
+        <v>0.4</v>
       </c>
       <c r="C476">
-        <v>375.3140147115781</v>
+        <v>0.01086570222734906</v>
       </c>
       <c r="D476">
-        <v>0.3666949075841032</v>
+        <v>0.006941215880508146</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.01086570222734906</v>
+        <v>0.4</v>
       </c>
       <c r="C477">
-        <v>375.714014711578</v>
+        <v>0.004933055644783302</v>
       </c>
       <c r="D477">
-        <v>0.3716212691309109</v>
+        <v>0.003151329151540184</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.004933055644783302</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C478">
-        <v>376.5281842818452</v>
+        <v>-0.002957736178200499</v>
       </c>
       <c r="D478">
-        <v>0.3709236879114934</v>
+        <v>-0.002140506490259446</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>-0.002957736178200499</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C479">
-        <v>377.3423538521124</v>
+        <v>-0.01039029546118364</v>
       </c>
       <c r="D479">
-        <v>0.3528144087661442</v>
+        <v>-0.007519431595791643</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>-0.01039029546118364</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C480">
-        <v>378.1565234223795</v>
+        <v>-0.004539412582249547</v>
       </c>
       <c r="D480">
-        <v>0.3512490124548617</v>
+        <v>-0.003285161863280923</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-0.004539412582249547</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C481">
-        <v>378.9706929926467</v>
+        <v>-0.001502372063105994</v>
       </c>
       <c r="D481">
-        <v>0.3632446746867686</v>
+        <v>-0.001087263014045893</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>-0.001502372063105994</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C482">
-        <v>379.7848625629138</v>
+        <v>-0.02281071525749567</v>
       </c>
       <c r="D482">
-        <v>0.3592470360577484</v>
+        <v>-0.01650805924341634</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>-0.02281071525749567</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C483">
-        <v>380.599032133181</v>
+        <v>-0.002488193097569535</v>
       </c>
       <c r="D483">
-        <v>0.351629697042219</v>
+        <v>-0.001800699302940098</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>-0.002488193097569535</v>
+        <v>0.8141695702671312</v>
       </c>
       <c r="C484">
-        <v>381.4132017034481</v>
+        <v>0.0149640847244541</v>
       </c>
       <c r="D484">
-        <v>0.3511827828488556</v>
+        <v>0.01082947177965476</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.0149640847244541</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C485">
-        <v>382.002090592337</v>
+        <v>-0.03595507650482777</v>
       </c>
       <c r="D485">
-        <v>0.3668941062563901</v>
+        <v>-0.02440627530343899</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.03595507650482777</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C486">
-        <v>382.5909794812259</v>
+        <v>0.005969644790429385</v>
       </c>
       <c r="D486">
-        <v>0.3636776694128195</v>
+        <v>0.004052189798550336</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.005969644790429385</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C487">
-        <v>383.1798683701148</v>
+        <v>0.03128366912739011</v>
       </c>
       <c r="D487">
-        <v>0.357711286748631</v>
+        <v>0.02123532795493451</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.03128366912739011</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C488">
-        <v>383.7687572590037</v>
+        <v>-0.01645563065629574</v>
       </c>
       <c r="D488">
-        <v>0.367031355014415</v>
+        <v>-0.01117006807189905</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-0.01645563065629574</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C489">
-        <v>384.3576461478926</v>
+        <v>-0.02517174920826015</v>
       </c>
       <c r="D489">
-        <v>0.3800719836471647</v>
+        <v>-0.01708656192021813</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>-0.02517174920826015</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C490">
-        <v>384.9465350367815</v>
+        <v>-0.02282437029706319</v>
       </c>
       <c r="D490">
-        <v>0.3926455538225996</v>
+        <v>-0.01549316311489318</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>-0.02282437029706319</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C491">
-        <v>385.5354239256704</v>
+        <v>0.0194969620294394</v>
       </c>
       <c r="D491">
-        <v>0.3902515414064189</v>
+        <v>0.01323452121725569</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.0194969620294394</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C492">
-        <v>386.1243128145593</v>
+        <v>-0.02493863579670652</v>
       </c>
       <c r="D492">
-        <v>0.3936212399750004</v>
+        <v>-0.01692832473503128</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>-0.02493863579670652</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C493">
-        <v>386.7132017034482</v>
+        <v>0.03353454484491714</v>
       </c>
       <c r="D493">
-        <v>0.4024695817675931</v>
+        <v>0.02276322047460177</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.03353454484491714</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C494">
-        <v>387.3020905923372</v>
+        <v>-0.004035672163716697</v>
       </c>
       <c r="D494">
-        <v>0.4086541968464618</v>
+        <v>-0.002739410826976541</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>-0.004035672163716697</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C495">
-        <v>387.8909794812261</v>
+        <v>0.02100463861081359</v>
       </c>
       <c r="D495">
-        <v>0.4056074681589205</v>
+        <v>0.01425793079639051</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.02100463861081359</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C496">
-        <v>388.479868370115</v>
+        <v>-0.007169605423486658</v>
       </c>
       <c r="D496">
-        <v>0.4115684074936314</v>
+        <v>-0.004866722054092954</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>-0.007169605423486658</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C497">
-        <v>389.0687572590039</v>
+        <v>0.01102713549915357</v>
       </c>
       <c r="D497">
-        <v>0.4043410123641552</v>
+        <v>0.007485210183450184</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.01102713549915357</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C498">
-        <v>389.6576461478928</v>
+        <v>0.007853840827369396</v>
       </c>
       <c r="D498">
-        <v>0.4154438737023801</v>
+        <v>0.005331180463388219</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.007853840827369396</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C499">
-        <v>390.2465350367817</v>
+        <v>-0.00111211729171945</v>
       </c>
       <c r="D499">
-        <v>0.4152470549661529</v>
+        <v>-0.0007549042702711359</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>-0.00111211729171945</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C500">
-        <v>390.8354239256706</v>
+        <v>-0.02887067758925177</v>
       </c>
       <c r="D500">
-        <v>0.4097058786390504</v>
+        <v>-0.01959739135433333</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>-0.02887067758925177</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C501">
-        <v>391.4243128145595</v>
+        <v>-0.002495629552104361</v>
       </c>
       <c r="D501">
-        <v>0.4044246773054567</v>
+        <v>-0.001694031214086801</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>-0.002495629552104361</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C502">
-        <v>392.0132017034484</v>
+        <v>0.01912405756116975</v>
       </c>
       <c r="D502">
-        <v>0.410805991537972</v>
+        <v>0.01298139398184987</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.01912405756116975</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C503">
-        <v>392.6020905923373</v>
+        <v>-0.00637322640235638</v>
       </c>
       <c r="D503">
-        <v>0.4033844109789453</v>
+        <v>-0.004326140652938682</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7416,10 +7416,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>-0.00637322640235638</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C504">
-        <v>393.1909794812262</v>
+        <v>-0.01214392561074717</v>
+      </c>
+      <c r="D504">
+        <v>-0.00824328635987139</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7427,10 +7430,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>-0.01214392561074717</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C505">
-        <v>393.7798683701151</v>
+        <v>-0.0007124919486356518</v>
+      </c>
+      <c r="D505">
+        <v>-0.0004836389278034364</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7438,10 +7444,13 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>-0.0007124919486356518</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C506">
-        <v>394.368757259004</v>
+        <v>0.02504774204200633</v>
+      </c>
+      <c r="D506">
+        <v>0.01700238596139953</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7449,10 +7458,13 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.02504774204200633</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C507">
-        <v>394.9576461478929</v>
+        <v>-0.005127797211120111</v>
+      </c>
+      <c r="D507">
+        <v>-0.003480744378836181</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7460,10 +7472,13 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>-0.005127797211120111</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C508">
-        <v>395.5465350367818</v>
+        <v>-0.009511892157017421</v>
+      </c>
+      <c r="D508">
+        <v>-0.006456664293555823</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7471,10 +7486,13 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>-0.009511892157017421</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C509">
-        <v>396.1354239256707</v>
+        <v>0.01485849789224591</v>
+      </c>
+      <c r="D509">
+        <v>0.01008593571216652</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7482,10 +7500,13 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>0.01485849789224591</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C510">
-        <v>396.7243128145596</v>
+        <v>0.02078999289786587</v>
+      </c>
+      <c r="D510">
+        <v>0.0141122294692858</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7493,10 +7514,13 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.02078999289786587</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C511">
-        <v>397.3132017034485</v>
+        <v>0.02004538600168626</v>
+      </c>
+      <c r="D511">
+        <v>0.01360679094244638</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7504,161 +7528,181 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.02004538600168626</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C512">
-        <v>397.9020905923374</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>-0.003816648915590193</v>
+      </c>
+      <c r="D512">
+        <v>-0.002590738032721434</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>-0.003816648915590193</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C513">
-        <v>398.4909794812263</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>0.005372134371867787</v>
+      </c>
+      <c r="D513">
+        <v>0.00364660023541509</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0.005372134371867787</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C514">
-        <v>399.0798683701152</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>0.01410644902224334</v>
+      </c>
+      <c r="D514">
+        <v>0.009575445579835458</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.01410644902224334</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C515">
-        <v>399.6687572590041</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>0.009859808693793326</v>
+      </c>
+      <c r="D515">
+        <v>0.006692829742349448</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.009859808693793326</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C516">
-        <v>400.257646147893</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>-0.004857240364673387</v>
+      </c>
+      <c r="D516">
+        <v>-0.003297090621939784</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>-0.004857240364673387</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C517">
-        <v>400.8465350367819</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>0.0095032141412279</v>
+      </c>
+      <c r="D517">
+        <v>0.006450773663830193</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.0095032141412279</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C518">
-        <v>401.4354239256708</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>-0.01152225844653909</v>
+      </c>
+      <c r="D518">
+        <v>-0.007821299218369037</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>-0.01152225844653909</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C519">
-        <v>402.0243128145597</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>0.01770071174237664</v>
+      </c>
+      <c r="D519">
+        <v>0.01201522805251862</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.01770071174237664</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C520">
-        <v>402.6132017034486</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>-0.0003137778280146719</v>
+      </c>
+      <c r="D520">
+        <v>-0.0002129921223672807</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521">
-        <v>-0.0003137778280146719</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C521">
-        <v>403.2020905923375</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>-0.008834007909478636</v>
+      </c>
+      <c r="D521">
+        <v>-0.005996517043776652</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.008834007909478636</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C522">
-        <v>403.7909794812264</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>-0.008419543360193238</v>
+      </c>
+      <c r="D522">
+        <v>-0.005715178860779963</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>-0.008419543360193238</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C523">
-        <v>404.3798683701153</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>0.01017339587754762</v>
+      </c>
+      <c r="D523">
+        <v>0.006905692455555183</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.01017339587754762</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C524">
-        <v>404.9687572590042</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
         <v>-0.01183183813130118</v>
       </c>
-      <c r="C525">
-        <v>405.5576461478931</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="C526">
-        <v>406.146535036782</v>
+      <c r="D524">
+        <v>-0.008031441644672616</v>
       </c>
     </row>
   </sheetData>
